--- a/dataset_recipes.xlsx
+++ b/dataset_recipes.xlsx
@@ -11,14 +11,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1249">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>main_ingredient</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -34,9 +31,6 @@
     <t>recipe-38058</t>
   </si>
   <si>
-    <t>ayam</t>
-  </si>
-  <si>
     <t>Ayam Woku Manado</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>recipe-59284</t>
   </si>
   <si>
-    <t>brokoli</t>
-  </si>
-  <si>
     <t>Sop Ayam Simple</t>
   </si>
   <si>
@@ -338,9 +329,6 @@
   </si>
   <si>
     <t>recipe-68353</t>
-  </si>
-  <si>
-    <t>jagung</t>
   </si>
   <si>
     <t>Jagung Tumis Pedas</t>
@@ -497,9 +485,6 @@
     <t>recipe-73743</t>
   </si>
   <si>
-    <t>kacang_tanah</t>
-  </si>
-  <si>
     <t>Ayam Goreng Bumbu Kacang</t>
   </si>
   <si>
@@ -644,9 +629,6 @@
     <t>recipe-93105</t>
   </si>
   <si>
-    <t>kangkung</t>
-  </si>
-  <si>
     <t>Sarden Kangkung</t>
   </si>
   <si>
@@ -797,9 +779,6 @@
     <t>recipe-74414</t>
   </si>
   <si>
-    <t>kentang</t>
-  </si>
-  <si>
     <t>Semur Ayam Kentang Ala Mama Kirana</t>
   </si>
   <si>
@@ -950,9 +929,6 @@
     <t>recipe-6935</t>
   </si>
   <si>
-    <t>labu</t>
-  </si>
-  <si>
     <t>Sup Labu</t>
   </si>
   <si>
@@ -1103,9 +1079,6 @@
     <t>recipe-14544</t>
   </si>
   <si>
-    <t>labu_siam</t>
-  </si>
-  <si>
     <t>Soto Ayam</t>
   </si>
   <si>
@@ -1256,9 +1229,6 @@
     <t>recipe-7221</t>
   </si>
   <si>
-    <t>lobak_merah</t>
-  </si>
-  <si>
     <t>Lobak Merah Goreng</t>
   </si>
   <si>
@@ -1409,9 +1379,6 @@
     <t>recipe-62455</t>
   </si>
   <si>
-    <t>mentimun</t>
-  </si>
-  <si>
     <t>Es Mentimun</t>
   </si>
   <si>
@@ -1562,9 +1529,6 @@
     <t>recipe-91126</t>
   </si>
   <si>
-    <t>nanas</t>
-  </si>
-  <si>
     <t>Tonseng Kambing</t>
   </si>
   <si>
@@ -1715,9 +1679,6 @@
     <t>recipe-56878</t>
   </si>
   <si>
-    <t>nangka</t>
-  </si>
-  <si>
     <t>Bubur Nangka</t>
   </si>
   <si>
@@ -1868,9 +1829,6 @@
     <t>recipe-3901</t>
   </si>
   <si>
-    <t>nasi_putih</t>
-  </si>
-  <si>
     <t>Nasi bakar ayam merah kemangi simple lezat</t>
   </si>
   <si>
@@ -2021,9 +1979,6 @@
     <t>recipe-65791</t>
   </si>
   <si>
-    <t>paprika</t>
-  </si>
-  <si>
     <t>Sapi Lada Hitam (Beef Blackpepper)</t>
   </si>
   <si>
@@ -2174,9 +2129,6 @@
     <t>recipe-83150</t>
   </si>
   <si>
-    <t>pare</t>
-  </si>
-  <si>
     <t>Tumis Pare Daging Sapi Pedas</t>
   </si>
   <si>
@@ -2327,9 +2279,6 @@
     <t>recipe-25893</t>
   </si>
   <si>
-    <t>pepaya</t>
-  </si>
-  <si>
     <t>Ayam Pepaya Muda (Jukut Gedang)</t>
   </si>
   <si>
@@ -2480,9 +2429,6 @@
     <t>recipe-68843</t>
   </si>
   <si>
-    <t>pisang</t>
-  </si>
-  <si>
     <t>Pisang Goreng</t>
   </si>
   <si>
@@ -2633,9 +2579,6 @@
     <t>recipe-97808</t>
   </si>
   <si>
-    <t>singkong</t>
-  </si>
-  <si>
     <t>Singkong Bakar</t>
   </si>
   <si>
@@ -2786,9 +2729,6 @@
     <t>recipe-64599</t>
   </si>
   <si>
-    <t>tahu</t>
-  </si>
-  <si>
     <t>Ikan Tongkol Tahu Balado Asam Manis</t>
   </si>
   <si>
@@ -2939,9 +2879,6 @@
     <t>recipe-70619</t>
   </si>
   <si>
-    <t>telur</t>
-  </si>
-  <si>
     <t>Wortel kol cah tahu telur</t>
   </si>
   <si>
@@ -3092,9 +3029,6 @@
     <t>recipe-42095</t>
   </si>
   <si>
-    <t>tempe</t>
-  </si>
-  <si>
     <t>Bacem Tahu&amp;Tempe Tanpa Kecap (a.k.a Bacem ndeso)</t>
   </si>
   <si>
@@ -3245,9 +3179,6 @@
     <t>recipe-88508</t>
   </si>
   <si>
-    <t>terong</t>
-  </si>
-  <si>
     <t>Terong Balado</t>
   </si>
   <si>
@@ -3398,9 +3329,6 @@
     <t>recipe-77434</t>
   </si>
   <si>
-    <t>tomat</t>
-  </si>
-  <si>
     <t>Macaroni Schotel Beef Bolognese</t>
   </si>
   <si>
@@ -3551,9 +3479,6 @@
     <t>recipe-52045</t>
   </si>
   <si>
-    <t>ubi</t>
-  </si>
-  <si>
     <t>Puding Ubi</t>
   </si>
   <si>
@@ -3702,9 +3627,6 @@
   </si>
   <si>
     <t>recipe-95905</t>
-  </si>
-  <si>
-    <t>wortel</t>
   </si>
   <si>
     <t>Sup Wortel</t>
@@ -3852,7 +3774,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3863,10 +3785,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -3897,34 +3815,22 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -4146,15 +4052,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.38"/>
-    <col customWidth="1" min="2" max="2" width="11.5"/>
-    <col customWidth="1" min="3" max="3" width="26.5"/>
+    <col customWidth="1" min="2" max="2" width="26.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4166,7509 +4071,4509 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="C18" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="1" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="C19" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="C22" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="D23" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="D24" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="D25" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="E25" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="D27" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="E28" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="D30" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="D31" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="E31" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="1" t="s">
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="E33" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="E35" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+    <row r="38">
+      <c r="A38" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+    <row r="39">
+      <c r="A39" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+    <row r="40">
+      <c r="A40" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="E40" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
+    <row r="41">
+      <c r="A41" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="E41" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+    <row r="42">
+      <c r="A42" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="E42" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
+    <row r="43">
+      <c r="A43" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F42" s="6" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="6" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F44" s="6" t="s">
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F45" s="6" t="s">
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="6" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F47" s="6" t="s">
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F48" s="6" t="s">
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F49" s="6" t="s">
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F50" s="6" t="s">
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F51" s="6" t="s">
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C53" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E53" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E52" s="1" t="s">
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="B54" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E54" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E53" s="1" t="s">
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="B55" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="C55" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E55" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E54" s="1" t="s">
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="B56" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E56" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E55" s="1" t="s">
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="B57" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="C57" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E57" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E56" s="1" t="s">
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="B58" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E58" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E57" s="1" t="s">
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="B59" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E59" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E58" s="1" t="s">
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="B60" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="C60" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E60" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E59" s="1" t="s">
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="B61" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E61" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E60" s="1" t="s">
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="B62" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E62" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E61" s="1" t="s">
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="B63" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="D63" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="E63" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D62" s="1" t="s">
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="C64" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="D64" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="E64" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D63" s="1" t="s">
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="C65" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="D65" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="E65" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D64" s="1" t="s">
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="C66" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="D66" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="E66" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D65" s="1" t="s">
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="C67" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="D67" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="E67" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D66" s="1" t="s">
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="C68" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="E68" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D67" s="1" t="s">
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="C69" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="D69" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="E69" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D68" s="1" t="s">
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="C70" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="D70" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="E70" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D69" s="1" t="s">
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="C71" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="D71" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="E71" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D70" s="1" t="s">
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="C72" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="D72" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="E72" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D71" s="1" t="s">
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="C73" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="D73" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C72" s="1" t="s">
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="D74" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C73" s="1" t="s">
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="D75" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="E75" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C74" s="1" t="s">
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="D76" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="E76" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C75" s="1" t="s">
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="D77" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="E77" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C76" s="1" t="s">
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="D78" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="E78" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C77" s="1" t="s">
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="D79" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="E79" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C78" s="1" t="s">
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="D80" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="E80" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C79" s="1" t="s">
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="D81" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="E81" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C80" s="1" t="s">
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="D82" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="E82" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C81" s="1" t="s">
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="D83" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="s">
+      <c r="E83" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B82" s="4" t="s">
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="E84" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="3" t="s">
+    <row r="85">
+      <c r="A85" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="E85" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="3" t="s">
+    <row r="86">
+      <c r="A86" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="E86" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="3" t="s">
+    <row r="87">
+      <c r="A87" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="E87" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="3" t="s">
+    <row r="88">
+      <c r="A88" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="E88" s="4" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="3" t="s">
+    <row r="89">
+      <c r="A89" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="C89" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="E89" s="4" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="3" t="s">
+    <row r="90">
+      <c r="A90" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="E90" s="4" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="3" t="s">
+    <row r="91">
+      <c r="A91" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C89" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="C91" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="D91" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="E91" s="4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="3" t="s">
+    <row r="92">
+      <c r="A92" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="E92" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="3" t="s">
+    <row r="93">
+      <c r="A93" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="B93" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="C93" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="D93" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="E93" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="3" t="s">
+    <row r="94">
+      <c r="A94" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B94" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E94" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="F92" s="6" t="s">
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="s">
+      <c r="B95" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E95" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="F93" s="6" t="s">
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="s">
+      <c r="B96" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E96" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="F94" s="6" t="s">
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="B97" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E97" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F95" s="6" t="s">
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="B98" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E98" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="F96" s="6" t="s">
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="B99" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E99" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="F97" s="6" t="s">
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="B100" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E100" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F98" s="6" t="s">
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="s">
+      <c r="B101" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E101" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="F99" s="6" t="s">
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E102" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="F100" s="6" t="s">
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="s">
+      <c r="B103" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E103" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="F101" s="6" t="s">
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="s">
+      <c r="B104" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="C104" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D104" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E104" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="E102" s="1" t="s">
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="B105" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="3" t="s">
+      <c r="C105" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E105" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="E103" s="1" t="s">
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="B106" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="s">
+      <c r="C106" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E106" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="E104" s="1" t="s">
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="B107" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="s">
+      <c r="C107" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E107" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E105" s="1" t="s">
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="B108" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="3" t="s">
+      <c r="C108" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E108" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="E106" s="1" t="s">
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="B109" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="s">
+      <c r="C109" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E109" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="E107" s="1" t="s">
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="B110" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="s">
+      <c r="C110" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E110" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="E108" s="1" t="s">
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="B111" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="s">
+      <c r="C111" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E111" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="E109" s="1" t="s">
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="B112" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="s">
+      <c r="C112" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E112" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="E110" s="1" t="s">
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="B113" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="s">
+      <c r="C113" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E113" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="E111" s="1" t="s">
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="B114" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="s">
+      <c r="C114" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="D114" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="E114" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="D112" s="1" t="s">
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="C115" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="s">
+      <c r="D115" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="E115" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="D113" s="1" t="s">
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="C116" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="s">
+      <c r="D116" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="E116" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="D114" s="1" t="s">
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="C117" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="s">
+      <c r="D117" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="E117" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="D115" s="1" t="s">
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="B118" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="C118" s="3" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="E118" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D116" s="1" t="s">
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="B119" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="C119" s="3" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="s">
+      <c r="D119" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="E119" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="D117" s="1" t="s">
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="C120" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="3" t="s">
+      <c r="D120" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="C118" s="5" t="s">
+      <c r="E120" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="D118" s="5" t="s">
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="B121" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="C121" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="3" t="s">
+      <c r="D121" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="C119" s="5" t="s">
+      <c r="E121" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="D119" s="5" t="s">
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="C122" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="3" t="s">
+      <c r="D122" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="E122" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="D120" s="1" t="s">
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="C123" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="3" t="s">
+      <c r="D123" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="E123" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="D121" s="1" t="s">
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="C124" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="3" t="s">
+      <c r="D124" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="C122" s="1" t="s">
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="D125" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="s">
+      <c r="E125" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C123" s="1" t="s">
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="D126" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="3" t="s">
+      <c r="E126" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C124" s="1" t="s">
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="D127" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="3" t="s">
+      <c r="E127" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C125" s="1" t="s">
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="D128" s="1" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="3" t="s">
+      <c r="E128" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C126" s="1" t="s">
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="D129" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="3" t="s">
+      <c r="E129" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C127" s="1" t="s">
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="D130" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="3" t="s">
+      <c r="E130" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C128" s="1" t="s">
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="D131" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="3" t="s">
+      <c r="E131" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C129" s="1" t="s">
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="D132" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="3" t="s">
+      <c r="E132" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C130" s="1" t="s">
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="F130" s="6" t="s">
+      <c r="D133" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="3" t="s">
+      <c r="E133" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C131" s="1" t="s">
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="D134" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="3" t="s">
+      <c r="E134" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="B132" s="4" t="s">
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="E135" s="4" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="3" t="s">
+    <row r="136">
+      <c r="A136" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="E136" s="4" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="3" t="s">
+    <row r="137">
+      <c r="A137" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="F134" s="6" t="s">
+      <c r="E137" s="5" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="3" t="s">
+    <row r="138">
+      <c r="A138" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="E138" s="4" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="3" t="s">
+    <row r="139">
+      <c r="A139" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="E139" s="4" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="3" t="s">
+    <row r="140">
+      <c r="A140" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="E140" s="4" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="3" t="s">
+    <row r="141">
+      <c r="A141" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F138" s="6" t="s">
+      <c r="E141" s="4" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="3" t="s">
+    <row r="142">
+      <c r="A142" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="F139" s="6" t="s">
+      <c r="E142" s="4" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="3" t="s">
+    <row r="143">
+      <c r="A143" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="E143" s="4" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="3" t="s">
+    <row r="144">
+      <c r="A144" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="F141" s="6" t="s">
+      <c r="E144" s="4" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="3" t="s">
+    <row r="145">
+      <c r="A145" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B145" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E145" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="F142" s="6" t="s">
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="3" t="s">
+      <c r="B146" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E146" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="F143" s="6" t="s">
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="3" t="s">
+      <c r="B147" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E147" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="F144" s="6" t="s">
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="3" t="s">
+      <c r="B148" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E148" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="F145" s="6" t="s">
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="3" t="s">
+      <c r="B149" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E149" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="F146" s="6" t="s">
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="3" t="s">
+      <c r="B150" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E150" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="F147" s="6" t="s">
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="3" t="s">
+      <c r="B151" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C148" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E151" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="F148" s="6" t="s">
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="3" t="s">
+      <c r="B152" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E152" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="F149" s="6" t="s">
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="3" t="s">
+      <c r="B153" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E153" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="F150" s="6" t="s">
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="3" t="s">
+      <c r="B154" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E154" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="F151" s="6" t="s">
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="3" t="s">
+      <c r="B155" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="C155" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E155" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="E152" s="1" t="s">
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="B156" s="1" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="3" t="s">
+      <c r="C156" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E156" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="E153" s="1" t="s">
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="F153" s="6" t="s">
+      <c r="B157" s="1" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="3" t="s">
+      <c r="C157" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E157" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="E154" s="1" t="s">
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="F154" s="6" t="s">
+      <c r="B158" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="3" t="s">
+      <c r="C158" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="E158" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="E155" s="1" t="s">
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="B159" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="3" t="s">
+      <c r="C159" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C156" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="E159" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="E156" s="1" t="s">
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="B160" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="3" t="s">
+      <c r="C160" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E160" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="E157" s="1" t="s">
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="B161" s="1" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="3" t="s">
+      <c r="C161" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C158" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E161" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="E158" s="1" t="s">
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="F158" s="6" t="s">
+      <c r="B162" s="1" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="3" t="s">
+      <c r="C162" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C159" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="E162" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="E159" s="1" t="s">
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="F159" s="6" t="s">
+      <c r="B163" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="3" t="s">
+      <c r="C163" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E163" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="E160" s="1" t="s">
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="F160" s="6" t="s">
+      <c r="B164" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="3" t="s">
+      <c r="C164" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B161" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="E164" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="E161" s="1" t="s">
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="B165" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="3" t="s">
+      <c r="C165" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="D165" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="E165" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="D162" s="1" t="s">
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="F162" s="7" t="s">
+      <c r="C166" s="1" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="3" t="s">
+      <c r="D166" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="C163" s="1" t="s">
+      <c r="E166" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="D163" s="1" t="s">
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="C167" s="1" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="3" t="s">
+      <c r="D167" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="C164" s="1" t="s">
+      <c r="E167" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="D164" s="1" t="s">
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="C168" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="3" t="s">
+      <c r="D168" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="C165" s="1" t="s">
+      <c r="E168" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="D165" s="1" t="s">
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="F165" s="6" t="s">
+      <c r="C169" s="1" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="3" t="s">
+      <c r="D169" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B166" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="C166" s="1" t="s">
+      <c r="E169" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="D166" s="1" t="s">
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="C170" s="1" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="3" t="s">
+      <c r="D170" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="C167" s="1" t="s">
+      <c r="E170" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="D167" s="1" t="s">
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="F167" s="6" t="s">
+      <c r="C171" s="1" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="3" t="s">
+      <c r="D171" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="C168" s="1" t="s">
+      <c r="E171" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="D168" s="1" t="s">
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="C172" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="3" t="s">
+      <c r="D172" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B169" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="C169" s="1" t="s">
+      <c r="E172" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="D169" s="1" t="s">
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="F169" s="6" t="s">
+      <c r="C173" s="1" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="3" t="s">
+      <c r="D173" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="C170" s="1" t="s">
+      <c r="E173" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="D170" s="1" t="s">
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="F170" s="6" t="s">
+      <c r="C174" s="1" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="3" t="s">
+      <c r="D174" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="C171" s="1" t="s">
+      <c r="E174" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="D171" s="1" t="s">
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="F171" s="6" t="s">
+      <c r="C175" s="1" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="3" t="s">
+      <c r="D175" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="E175" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="C172" s="1" t="s">
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="F172" s="6" t="s">
+      <c r="D176" s="1" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="3" t="s">
+      <c r="E176" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="B173" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="C173" s="1" t="s">
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="F173" s="6" t="s">
+      <c r="D177" s="1" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="3" t="s">
+      <c r="E177" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="C174" s="1" t="s">
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="F174" s="6" t="s">
+      <c r="D178" s="1" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="3" t="s">
+      <c r="E178" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="B175" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="C175" s="1" t="s">
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="D179" s="1" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="3" t="s">
+      <c r="E179" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="B176" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="C176" s="1" t="s">
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="F176" s="6" t="s">
+      <c r="D180" s="1" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="3" t="s">
+      <c r="E180" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="B177" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="C177" s="1" t="s">
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="F177" s="6" t="s">
+      <c r="D181" s="1" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="3" t="s">
+      <c r="E181" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="C178" s="1" t="s">
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="F178" s="6" t="s">
+      <c r="D182" s="1" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="3" t="s">
+      <c r="E182" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="C179" s="1" t="s">
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="F179" s="6" t="s">
+      <c r="D183" s="1" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="3" t="s">
+      <c r="E183" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="C180" s="1" t="s">
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="F180" s="6" t="s">
+      <c r="D184" s="1" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="3" t="s">
+      <c r="E184" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="B181" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="C181" s="1" t="s">
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="F181" s="6" t="s">
+      <c r="D185" s="1" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="3" t="s">
+      <c r="E185" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="B182" s="4" t="s">
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="F182" s="6" t="s">
+      <c r="E186" s="4" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="3" t="s">
+    <row r="187">
+      <c r="A187" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C183" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="E187" s="4" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="3" t="s">
+    <row r="188">
+      <c r="A188" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C184" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="F184" s="6" t="s">
+      <c r="E188" s="4" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="3" t="s">
+    <row r="189">
+      <c r="A189" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C185" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="E189" s="4" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="3" t="s">
+    <row r="190">
+      <c r="A190" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C186" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="F186" s="6" t="s">
+      <c r="E190" s="5" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="3" t="s">
+    <row r="191">
+      <c r="A191" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C187" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="F187" s="6" t="s">
+      <c r="E191" s="4" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="3" t="s">
+    <row r="192">
+      <c r="A192" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C188" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="F188" s="6" t="s">
+      <c r="E192" s="4" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="3" t="s">
+    <row r="193">
+      <c r="A193" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="B189" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C189" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="F189" s="6" t="s">
+      <c r="E193" s="4" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="3" t="s">
+    <row r="194">
+      <c r="A194" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B190" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C190" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="F190" s="7" t="s">
+      <c r="E194" s="4" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="3" t="s">
+    <row r="195">
+      <c r="A195" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="B191" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="C191" s="1" t="s">
+      <c r="B195" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="C195" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="D195" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="F191" s="6" t="s">
+      <c r="E195" s="4" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="3" t="s">
+    <row r="196">
+      <c r="A196" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B196" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E196" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="F192" s="6" t="s">
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="3" t="s">
+      <c r="B197" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B193" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="C193" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E197" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="F193" s="6" t="s">
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="3" t="s">
+      <c r="B198" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="B194" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="C194" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="E198" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="F194" s="6" t="s">
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="3" t="s">
+      <c r="B199" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="B195" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="C195" s="5" t="s">
+      <c r="C199" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D199" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="E195" s="5" t="s">
+      <c r="E199" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="F195" s="6" t="s">
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="3" t="s">
+      <c r="B200" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B196" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="C196" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E200" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="F196" s="6" t="s">
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="3" t="s">
+      <c r="B201" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B197" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="C197" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="E201" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="F197" s="6" t="s">
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="3" t="s">
+      <c r="B202" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B198" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="C198" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="E202" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="F198" s="6" t="s">
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="3" t="s">
+      <c r="B203" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B199" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="C199" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E203" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="F199" s="6" t="s">
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="3" t="s">
+      <c r="B204" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="C200" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E204" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="F200" s="6" t="s">
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="3" t="s">
+      <c r="B205" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B201" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="C201" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E205" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="F201" s="6" t="s">
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="3" t="s">
+      <c r="B206" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="C206" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E206" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="E202" s="1" t="s">
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="F202" s="6" t="s">
+      <c r="B207" s="1" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="3" t="s">
+      <c r="C207" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C203" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E207" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="E203" s="1" t="s">
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="F203" s="6" t="s">
+      <c r="B208" s="1" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="3" t="s">
+      <c r="C208" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B204" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C204" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E208" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="E204" s="1" t="s">
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="F204" s="6" t="s">
+      <c r="B209" s="1" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="3" t="s">
+      <c r="C209" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B205" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C205" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E209" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="E205" s="1" t="s">
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="F205" s="6" t="s">
+      <c r="B210" s="1" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="3" t="s">
+      <c r="C210" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B206" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C206" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="E210" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="E206" s="1" t="s">
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="F206" s="6" t="s">
+      <c r="B211" s="1" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="3" t="s">
+      <c r="C211" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C207" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E211" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="E207" s="1" t="s">
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="F207" s="6" t="s">
+      <c r="B212" s="1" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="3" t="s">
+      <c r="C212" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B208" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C208" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="E212" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="E208" s="1" t="s">
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="F208" s="6" t="s">
+      <c r="B213" s="1" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="3" t="s">
+      <c r="C213" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B209" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C209" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="E213" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="E209" s="1" t="s">
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="F209" s="6" t="s">
+      <c r="B214" s="1" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="3" t="s">
+      <c r="C214" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B210" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C210" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="E214" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="E210" s="1" t="s">
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="F210" s="6" t="s">
+      <c r="B215" s="1" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="3" t="s">
+      <c r="C215" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="B211" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C211" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="E215" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="E211" s="1" t="s">
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="F211" s="6" t="s">
+      <c r="B216" s="1" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="3" t="s">
+      <c r="C216" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="D216" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="E216" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="D212" s="1" t="s">
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="F212" s="6" t="s">
+      <c r="C217" s="1" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="3" t="s">
+      <c r="D217" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B213" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C213" s="1" t="s">
+      <c r="E217" s="4" t="s">
         <v>1080</v>
       </c>
-      <c r="D213" s="1" t="s">
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="F213" s="6" t="s">
+      <c r="C218" s="1" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="3" t="s">
+      <c r="D218" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="B214" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C214" s="1" t="s">
+      <c r="E218" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="D214" s="1" t="s">
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="F214" s="6" t="s">
+      <c r="C219" s="1" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="3" t="s">
+      <c r="D219" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C215" s="1" t="s">
+      <c r="E219" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D215" s="1" t="s">
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="F215" s="6" t="s">
+      <c r="C220" s="1" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="3" t="s">
+      <c r="D220" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="B216" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C216" s="1" t="s">
+      <c r="E220" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D216" s="1" t="s">
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="F216" s="6" t="s">
+      <c r="C221" s="1" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="3" t="s">
+      <c r="D221" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B217" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C217" s="1" t="s">
+      <c r="E221" s="5" t="s">
         <v>1100</v>
       </c>
-      <c r="D217" s="1" t="s">
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="B222" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="F217" s="6" t="s">
+      <c r="C222" s="1" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="3" t="s">
+      <c r="D222" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="B218" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C218" s="1" t="s">
+      <c r="E222" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="D218" s="1" t="s">
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="F218" s="6" t="s">
+      <c r="C223" s="1" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="3" t="s">
+      <c r="D223" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B219" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C219" s="1" t="s">
+      <c r="E223" s="4" t="s">
         <v>1110</v>
       </c>
-      <c r="D219" s="1" t="s">
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="F219" s="6" t="s">
+      <c r="C224" s="1" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="3" t="s">
+      <c r="D224" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C220" s="1" t="s">
+      <c r="E224" s="4" t="s">
         <v>1115</v>
       </c>
-      <c r="D220" s="1" t="s">
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="B225" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="F220" s="6" t="s">
+      <c r="C225" s="3" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="3" t="s">
+      <c r="D225" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="B221" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C221" s="1" t="s">
+      <c r="E225" s="4" t="s">
         <v>1120</v>
       </c>
-      <c r="D221" s="1" t="s">
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="F221" s="7" t="s">
+      <c r="C226" s="1" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="3" t="s">
+      <c r="D226" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="E226" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="C222" s="10" t="s">
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="F222" s="6" t="s">
+      <c r="D227" s="1" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="3" t="s">
+      <c r="E227" s="4" t="s">
         <v>1130</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C223" s="1" t="s">
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="F223" s="6" t="s">
+      <c r="D228" s="1" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="3" t="s">
+      <c r="E228" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="B224" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C224" s="1" t="s">
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="E224" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="F224" s="6" t="s">
+      <c r="D229" s="1" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="3" t="s">
+      <c r="E229" s="4" t="s">
         <v>1140</v>
       </c>
-      <c r="B225" s="8" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C225" s="5" t="s">
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="D225" s="5" t="s">
+      <c r="B230" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="E225" s="5" t="s">
+      <c r="C230" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="F225" s="6" t="s">
+      <c r="D230" s="1" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="3" t="s">
+      <c r="E230" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C226" s="1" t="s">
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="F226" s="6" t="s">
+      <c r="D231" s="1" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="3" t="s">
+      <c r="E231" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C227" s="1" t="s">
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="F227" s="6" t="s">
+      <c r="D232" s="1" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="3" t="s">
+      <c r="E232" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C228" s="1" t="s">
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="F228" s="6" t="s">
+      <c r="D233" s="1" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="3" t="s">
+      <c r="E233" s="4" t="s">
         <v>1160</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C229" s="1" t="s">
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="F229" s="6" t="s">
+      <c r="D234" s="1" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="3" t="s">
+      <c r="E234" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="B230" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C230" s="1" t="s">
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="F230" s="6" t="s">
+      <c r="D235" s="1" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="3" t="s">
+      <c r="E235" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="B231" s="4" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C231" s="1" t="s">
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="F231" s="6" t="s">
+      <c r="D236" s="1" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="3" t="s">
+      <c r="E236" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="B232" s="4" t="s">
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="F232" s="6" t="s">
+      <c r="E237" s="4" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="3" t="s">
+    <row r="238">
+      <c r="A238" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="B233" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C233" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="E233" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="F233" s="6" t="s">
+      <c r="E238" s="4" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="3" t="s">
+    <row r="239">
+      <c r="A239" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="B234" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C234" s="1" t="s">
+      <c r="B239" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="E234" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="F234" s="6" t="s">
+      <c r="E239" s="5" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="3" t="s">
+    <row r="240">
+      <c r="A240" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C235" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="C240" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="F235" s="6" t="s">
+      <c r="E240" s="4" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="3" t="s">
+    <row r="241">
+      <c r="A241" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C236" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="F236" s="6" t="s">
+      <c r="E241" s="4" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="3" t="s">
+    <row r="242">
+      <c r="A242" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C237" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="C242" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="E237" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="F237" s="6" t="s">
+      <c r="E242" s="5" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="3" t="s">
+    <row r="243">
+      <c r="A243" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="B238" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C238" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="F238" s="6" t="s">
+      <c r="E243" s="4" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="3" t="s">
+    <row r="244">
+      <c r="A244" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="B239" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C239" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="F239" s="7" t="s">
+      <c r="E244" s="4" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="3" t="s">
+    <row r="245">
+      <c r="A245" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="B240" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C240" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="F240" s="6" t="s">
+      <c r="E245" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="3" t="s">
+      <c r="B246" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="B241" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C241" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="E246" s="4" t="s">
         <v>1223</v>
       </c>
-      <c r="E241" s="1" t="s">
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="F241" s="6" t="s">
+      <c r="B247" s="1" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="3" t="s">
+      <c r="C247" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="D247" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="E247" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="D242" s="1" t="s">
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="F242" s="7" t="s">
+      <c r="C248" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="3" t="s">
+      <c r="D248" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="B243" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C243" s="1" t="s">
+      <c r="E248" s="4" t="s">
         <v>1233</v>
       </c>
-      <c r="D243" s="1" t="s">
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E243" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="F243" s="6" t="s">
+      <c r="C249" s="1" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="3" t="s">
+      <c r="D249" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="B244" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C244" s="1" t="s">
+      <c r="E249" s="4" t="s">
         <v>1238</v>
       </c>
-      <c r="D244" s="1" t="s">
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="E244" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="F244" s="6" t="s">
+      <c r="C250" s="1" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="3" t="s">
+      <c r="D250" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C245" s="1" t="s">
+      <c r="E250" s="4" t="s">
         <v>1243</v>
       </c>
-      <c r="D245" s="1" t="s">
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="E245" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="F245" s="6" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="3" t="s">
+      <c r="C251" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="B246" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D246" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="E246" s="1" t="s">
+      <c r="E251" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="F246" s="6" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F247" s="6" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F248" s="6" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F249" s="6" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F250" s="6" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="3" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F251" s="6" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="B252" s="9"/>
-    </row>
-    <row r="253">
-      <c r="B253" s="9"/>
-    </row>
-    <row r="254">
-      <c r="B254" s="9"/>
-    </row>
-    <row r="255">
-      <c r="B255" s="9"/>
-    </row>
-    <row r="256">
-      <c r="B256" s="9"/>
-    </row>
-    <row r="257">
-      <c r="B257" s="9"/>
-    </row>
-    <row r="258">
-      <c r="B258" s="9"/>
-    </row>
-    <row r="259">
-      <c r="B259" s="9"/>
-    </row>
-    <row r="260">
-      <c r="B260" s="9"/>
-    </row>
-    <row r="261">
-      <c r="B261" s="9"/>
-    </row>
-    <row r="262">
-      <c r="B262" s="9"/>
-    </row>
-    <row r="263">
-      <c r="B263" s="9"/>
-    </row>
-    <row r="264">
-      <c r="B264" s="9"/>
-    </row>
-    <row r="265">
-      <c r="B265" s="9"/>
-    </row>
-    <row r="266">
-      <c r="B266" s="9"/>
-    </row>
-    <row r="267">
-      <c r="B267" s="9"/>
-    </row>
-    <row r="268">
-      <c r="B268" s="9"/>
-    </row>
-    <row r="269">
-      <c r="B269" s="9"/>
-    </row>
-    <row r="270">
-      <c r="B270" s="9"/>
-    </row>
-    <row r="271">
-      <c r="B271" s="9"/>
-    </row>
-    <row r="272">
-      <c r="B272" s="9"/>
-    </row>
-    <row r="273">
-      <c r="B273" s="9"/>
-    </row>
-    <row r="274">
-      <c r="B274" s="9"/>
-    </row>
-    <row r="275">
-      <c r="B275" s="9"/>
-    </row>
-    <row r="276">
-      <c r="B276" s="9"/>
-    </row>
-    <row r="277">
-      <c r="B277" s="9"/>
-    </row>
-    <row r="278">
-      <c r="B278" s="9"/>
-    </row>
-    <row r="279">
-      <c r="B279" s="9"/>
-    </row>
-    <row r="280">
-      <c r="B280" s="9"/>
-    </row>
-    <row r="281">
-      <c r="B281" s="9"/>
-    </row>
-    <row r="282">
-      <c r="B282" s="9"/>
-    </row>
-    <row r="283">
-      <c r="B283" s="9"/>
-    </row>
-    <row r="284">
-      <c r="B284" s="9"/>
-    </row>
-    <row r="285">
-      <c r="B285" s="9"/>
-    </row>
-    <row r="286">
-      <c r="B286" s="9"/>
-    </row>
-    <row r="287">
-      <c r="B287" s="9"/>
-    </row>
-    <row r="288">
-      <c r="B288" s="9"/>
-    </row>
-    <row r="289">
-      <c r="B289" s="9"/>
-    </row>
-    <row r="290">
-      <c r="B290" s="9"/>
-    </row>
-    <row r="291">
-      <c r="B291" s="9"/>
-    </row>
-    <row r="292">
-      <c r="B292" s="9"/>
-    </row>
-    <row r="293">
-      <c r="B293" s="9"/>
-    </row>
-    <row r="294">
-      <c r="B294" s="9"/>
-    </row>
-    <row r="295">
-      <c r="B295" s="9"/>
-    </row>
-    <row r="296">
-      <c r="B296" s="9"/>
-    </row>
-    <row r="297">
-      <c r="B297" s="9"/>
-    </row>
-    <row r="298">
-      <c r="B298" s="9"/>
-    </row>
-    <row r="299">
-      <c r="B299" s="9"/>
-    </row>
-    <row r="300">
-      <c r="B300" s="9"/>
-    </row>
-    <row r="301">
-      <c r="B301" s="9"/>
-    </row>
-    <row r="302">
-      <c r="B302" s="9"/>
-    </row>
-    <row r="303">
-      <c r="B303" s="9"/>
-    </row>
-    <row r="304">
-      <c r="B304" s="9"/>
-    </row>
-    <row r="305">
-      <c r="B305" s="9"/>
-    </row>
-    <row r="306">
-      <c r="B306" s="9"/>
-    </row>
-    <row r="307">
-      <c r="B307" s="9"/>
-    </row>
-    <row r="308">
-      <c r="B308" s="9"/>
-    </row>
-    <row r="309">
-      <c r="B309" s="9"/>
-    </row>
-    <row r="310">
-      <c r="B310" s="9"/>
-    </row>
-    <row r="311">
-      <c r="B311" s="9"/>
-    </row>
-    <row r="312">
-      <c r="B312" s="9"/>
-    </row>
-    <row r="313">
-      <c r="B313" s="9"/>
-    </row>
-    <row r="314">
-      <c r="B314" s="9"/>
-    </row>
-    <row r="315">
-      <c r="B315" s="9"/>
-    </row>
-    <row r="316">
-      <c r="B316" s="9"/>
-    </row>
-    <row r="317">
-      <c r="B317" s="9"/>
-    </row>
-    <row r="318">
-      <c r="B318" s="9"/>
-    </row>
-    <row r="319">
-      <c r="B319" s="9"/>
-    </row>
-    <row r="320">
-      <c r="B320" s="9"/>
-    </row>
-    <row r="321">
-      <c r="B321" s="9"/>
-    </row>
-    <row r="322">
-      <c r="B322" s="9"/>
-    </row>
-    <row r="323">
-      <c r="B323" s="9"/>
-    </row>
-    <row r="324">
-      <c r="B324" s="9"/>
-    </row>
-    <row r="325">
-      <c r="B325" s="9"/>
-    </row>
-    <row r="326">
-      <c r="B326" s="9"/>
-    </row>
-    <row r="327">
-      <c r="B327" s="9"/>
-    </row>
-    <row r="328">
-      <c r="B328" s="9"/>
-    </row>
-    <row r="329">
-      <c r="B329" s="9"/>
-    </row>
-    <row r="330">
-      <c r="B330" s="9"/>
-    </row>
-    <row r="331">
-      <c r="B331" s="9"/>
-    </row>
-    <row r="332">
-      <c r="B332" s="9"/>
-    </row>
-    <row r="333">
-      <c r="B333" s="9"/>
-    </row>
-    <row r="334">
-      <c r="B334" s="9"/>
-    </row>
-    <row r="335">
-      <c r="B335" s="9"/>
-    </row>
-    <row r="336">
-      <c r="B336" s="9"/>
-    </row>
-    <row r="337">
-      <c r="B337" s="9"/>
-    </row>
-    <row r="338">
-      <c r="B338" s="9"/>
-    </row>
-    <row r="339">
-      <c r="B339" s="9"/>
-    </row>
-    <row r="340">
-      <c r="B340" s="9"/>
-    </row>
-    <row r="341">
-      <c r="B341" s="9"/>
-    </row>
-    <row r="342">
-      <c r="B342" s="9"/>
-    </row>
-    <row r="343">
-      <c r="B343" s="9"/>
-    </row>
-    <row r="344">
-      <c r="B344" s="9"/>
-    </row>
-    <row r="345">
-      <c r="B345" s="9"/>
-    </row>
-    <row r="346">
-      <c r="B346" s="9"/>
-    </row>
-    <row r="347">
-      <c r="B347" s="9"/>
-    </row>
-    <row r="348">
-      <c r="B348" s="9"/>
-    </row>
-    <row r="349">
-      <c r="B349" s="9"/>
-    </row>
-    <row r="350">
-      <c r="B350" s="9"/>
-    </row>
-    <row r="351">
-      <c r="B351" s="9"/>
-    </row>
-    <row r="352">
-      <c r="B352" s="9"/>
-    </row>
-    <row r="353">
-      <c r="B353" s="9"/>
-    </row>
-    <row r="354">
-      <c r="B354" s="9"/>
-    </row>
-    <row r="355">
-      <c r="B355" s="9"/>
-    </row>
-    <row r="356">
-      <c r="B356" s="9"/>
-    </row>
-    <row r="357">
-      <c r="B357" s="9"/>
-    </row>
-    <row r="358">
-      <c r="B358" s="9"/>
-    </row>
-    <row r="359">
-      <c r="B359" s="9"/>
-    </row>
-    <row r="360">
-      <c r="B360" s="9"/>
-    </row>
-    <row r="361">
-      <c r="B361" s="9"/>
-    </row>
-    <row r="362">
-      <c r="B362" s="9"/>
-    </row>
-    <row r="363">
-      <c r="B363" s="9"/>
-    </row>
-    <row r="364">
-      <c r="B364" s="9"/>
-    </row>
-    <row r="365">
-      <c r="B365" s="9"/>
-    </row>
-    <row r="366">
-      <c r="B366" s="9"/>
-    </row>
-    <row r="367">
-      <c r="B367" s="9"/>
-    </row>
-    <row r="368">
-      <c r="B368" s="9"/>
-    </row>
-    <row r="369">
-      <c r="B369" s="9"/>
-    </row>
-    <row r="370">
-      <c r="B370" s="9"/>
-    </row>
-    <row r="371">
-      <c r="B371" s="9"/>
-    </row>
-    <row r="372">
-      <c r="B372" s="9"/>
-    </row>
-    <row r="373">
-      <c r="B373" s="9"/>
-    </row>
-    <row r="374">
-      <c r="B374" s="9"/>
-    </row>
-    <row r="375">
-      <c r="B375" s="9"/>
-    </row>
-    <row r="376">
-      <c r="B376" s="9"/>
-    </row>
-    <row r="377">
-      <c r="B377" s="9"/>
-    </row>
-    <row r="378">
-      <c r="B378" s="9"/>
-    </row>
-    <row r="379">
-      <c r="B379" s="9"/>
-    </row>
-    <row r="380">
-      <c r="B380" s="9"/>
-    </row>
-    <row r="381">
-      <c r="B381" s="9"/>
-    </row>
-    <row r="382">
-      <c r="B382" s="9"/>
-    </row>
-    <row r="383">
-      <c r="B383" s="9"/>
-    </row>
-    <row r="384">
-      <c r="B384" s="9"/>
-    </row>
-    <row r="385">
-      <c r="B385" s="9"/>
-    </row>
-    <row r="386">
-      <c r="B386" s="9"/>
-    </row>
-    <row r="387">
-      <c r="B387" s="9"/>
-    </row>
-    <row r="388">
-      <c r="B388" s="9"/>
-    </row>
-    <row r="389">
-      <c r="B389" s="9"/>
-    </row>
-    <row r="390">
-      <c r="B390" s="9"/>
-    </row>
-    <row r="391">
-      <c r="B391" s="9"/>
-    </row>
-    <row r="392">
-      <c r="B392" s="9"/>
-    </row>
-    <row r="393">
-      <c r="B393" s="9"/>
-    </row>
-    <row r="394">
-      <c r="B394" s="9"/>
-    </row>
-    <row r="395">
-      <c r="B395" s="9"/>
-    </row>
-    <row r="396">
-      <c r="B396" s="9"/>
-    </row>
-    <row r="397">
-      <c r="B397" s="9"/>
-    </row>
-    <row r="398">
-      <c r="B398" s="9"/>
-    </row>
-    <row r="399">
-      <c r="B399" s="9"/>
-    </row>
-    <row r="400">
-      <c r="B400" s="9"/>
-    </row>
-    <row r="401">
-      <c r="B401" s="9"/>
-    </row>
-    <row r="402">
-      <c r="B402" s="9"/>
-    </row>
-    <row r="403">
-      <c r="B403" s="9"/>
-    </row>
-    <row r="404">
-      <c r="B404" s="9"/>
-    </row>
-    <row r="405">
-      <c r="B405" s="9"/>
-    </row>
-    <row r="406">
-      <c r="B406" s="9"/>
-    </row>
-    <row r="407">
-      <c r="B407" s="9"/>
-    </row>
-    <row r="408">
-      <c r="B408" s="9"/>
-    </row>
-    <row r="409">
-      <c r="B409" s="9"/>
-    </row>
-    <row r="410">
-      <c r="B410" s="9"/>
-    </row>
-    <row r="411">
-      <c r="B411" s="9"/>
-    </row>
-    <row r="412">
-      <c r="B412" s="9"/>
-    </row>
-    <row r="413">
-      <c r="B413" s="9"/>
-    </row>
-    <row r="414">
-      <c r="B414" s="9"/>
-    </row>
-    <row r="415">
-      <c r="B415" s="9"/>
-    </row>
-    <row r="416">
-      <c r="B416" s="9"/>
-    </row>
-    <row r="417">
-      <c r="B417" s="9"/>
-    </row>
-    <row r="418">
-      <c r="B418" s="9"/>
-    </row>
-    <row r="419">
-      <c r="B419" s="9"/>
-    </row>
-    <row r="420">
-      <c r="B420" s="9"/>
-    </row>
-    <row r="421">
-      <c r="B421" s="9"/>
-    </row>
-    <row r="422">
-      <c r="B422" s="9"/>
-    </row>
-    <row r="423">
-      <c r="B423" s="9"/>
-    </row>
-    <row r="424">
-      <c r="B424" s="9"/>
-    </row>
-    <row r="425">
-      <c r="B425" s="9"/>
-    </row>
-    <row r="426">
-      <c r="B426" s="9"/>
-    </row>
-    <row r="427">
-      <c r="B427" s="9"/>
-    </row>
-    <row r="428">
-      <c r="B428" s="9"/>
-    </row>
-    <row r="429">
-      <c r="B429" s="9"/>
-    </row>
-    <row r="430">
-      <c r="B430" s="9"/>
-    </row>
-    <row r="431">
-      <c r="B431" s="9"/>
-    </row>
-    <row r="432">
-      <c r="B432" s="9"/>
-    </row>
-    <row r="433">
-      <c r="B433" s="9"/>
-    </row>
-    <row r="434">
-      <c r="B434" s="9"/>
-    </row>
-    <row r="435">
-      <c r="B435" s="9"/>
-    </row>
-    <row r="436">
-      <c r="B436" s="9"/>
-    </row>
-    <row r="437">
-      <c r="B437" s="9"/>
-    </row>
-    <row r="438">
-      <c r="B438" s="9"/>
-    </row>
-    <row r="439">
-      <c r="B439" s="9"/>
-    </row>
-    <row r="440">
-      <c r="B440" s="9"/>
-    </row>
-    <row r="441">
-      <c r="B441" s="9"/>
-    </row>
-    <row r="442">
-      <c r="B442" s="9"/>
-    </row>
-    <row r="443">
-      <c r="B443" s="9"/>
-    </row>
-    <row r="444">
-      <c r="B444" s="9"/>
-    </row>
-    <row r="445">
-      <c r="B445" s="9"/>
-    </row>
-    <row r="446">
-      <c r="B446" s="9"/>
-    </row>
-    <row r="447">
-      <c r="B447" s="9"/>
-    </row>
-    <row r="448">
-      <c r="B448" s="9"/>
-    </row>
-    <row r="449">
-      <c r="B449" s="9"/>
-    </row>
-    <row r="450">
-      <c r="B450" s="9"/>
-    </row>
-    <row r="451">
-      <c r="B451" s="9"/>
-    </row>
-    <row r="452">
-      <c r="B452" s="9"/>
-    </row>
-    <row r="453">
-      <c r="B453" s="9"/>
-    </row>
-    <row r="454">
-      <c r="B454" s="9"/>
-    </row>
-    <row r="455">
-      <c r="B455" s="9"/>
-    </row>
-    <row r="456">
-      <c r="B456" s="9"/>
-    </row>
-    <row r="457">
-      <c r="B457" s="9"/>
-    </row>
-    <row r="458">
-      <c r="B458" s="9"/>
-    </row>
-    <row r="459">
-      <c r="B459" s="9"/>
-    </row>
-    <row r="460">
-      <c r="B460" s="9"/>
-    </row>
-    <row r="461">
-      <c r="B461" s="9"/>
-    </row>
-    <row r="462">
-      <c r="B462" s="9"/>
-    </row>
-    <row r="463">
-      <c r="B463" s="9"/>
-    </row>
-    <row r="464">
-      <c r="B464" s="9"/>
-    </row>
-    <row r="465">
-      <c r="B465" s="9"/>
-    </row>
-    <row r="466">
-      <c r="B466" s="9"/>
-    </row>
-    <row r="467">
-      <c r="B467" s="9"/>
-    </row>
-    <row r="468">
-      <c r="B468" s="9"/>
-    </row>
-    <row r="469">
-      <c r="B469" s="9"/>
-    </row>
-    <row r="470">
-      <c r="B470" s="9"/>
-    </row>
-    <row r="471">
-      <c r="B471" s="9"/>
-    </row>
-    <row r="472">
-      <c r="B472" s="9"/>
-    </row>
-    <row r="473">
-      <c r="B473" s="9"/>
-    </row>
-    <row r="474">
-      <c r="B474" s="9"/>
-    </row>
-    <row r="475">
-      <c r="B475" s="9"/>
-    </row>
-    <row r="476">
-      <c r="B476" s="9"/>
-    </row>
-    <row r="477">
-      <c r="B477" s="9"/>
-    </row>
-    <row r="478">
-      <c r="B478" s="9"/>
-    </row>
-    <row r="479">
-      <c r="B479" s="9"/>
-    </row>
-    <row r="480">
-      <c r="B480" s="9"/>
-    </row>
-    <row r="481">
-      <c r="B481" s="9"/>
-    </row>
-    <row r="482">
-      <c r="B482" s="9"/>
-    </row>
-    <row r="483">
-      <c r="B483" s="9"/>
-    </row>
-    <row r="484">
-      <c r="B484" s="9"/>
-    </row>
-    <row r="485">
-      <c r="B485" s="9"/>
-    </row>
-    <row r="486">
-      <c r="B486" s="9"/>
-    </row>
-    <row r="487">
-      <c r="B487" s="9"/>
-    </row>
-    <row r="488">
-      <c r="B488" s="9"/>
-    </row>
-    <row r="489">
-      <c r="B489" s="9"/>
-    </row>
-    <row r="490">
-      <c r="B490" s="9"/>
-    </row>
-    <row r="491">
-      <c r="B491" s="9"/>
-    </row>
-    <row r="492">
-      <c r="B492" s="9"/>
-    </row>
-    <row r="493">
-      <c r="B493" s="9"/>
-    </row>
-    <row r="494">
-      <c r="B494" s="9"/>
-    </row>
-    <row r="495">
-      <c r="B495" s="9"/>
-    </row>
-    <row r="496">
-      <c r="B496" s="9"/>
-    </row>
-    <row r="497">
-      <c r="B497" s="9"/>
-    </row>
-    <row r="498">
-      <c r="B498" s="9"/>
-    </row>
-    <row r="499">
-      <c r="B499" s="9"/>
-    </row>
-    <row r="500">
-      <c r="B500" s="9"/>
-    </row>
-    <row r="501">
-      <c r="B501" s="9"/>
-    </row>
-    <row r="502">
-      <c r="B502" s="9"/>
-    </row>
-    <row r="503">
-      <c r="B503" s="9"/>
-    </row>
-    <row r="504">
-      <c r="B504" s="9"/>
-    </row>
-    <row r="505">
-      <c r="B505" s="9"/>
-    </row>
-    <row r="506">
-      <c r="B506" s="9"/>
-    </row>
-    <row r="507">
-      <c r="B507" s="9"/>
-    </row>
-    <row r="508">
-      <c r="B508" s="9"/>
-    </row>
-    <row r="509">
-      <c r="B509" s="9"/>
-    </row>
-    <row r="510">
-      <c r="B510" s="9"/>
-    </row>
-    <row r="511">
-      <c r="B511" s="9"/>
-    </row>
-    <row r="512">
-      <c r="B512" s="9"/>
-    </row>
-    <row r="513">
-      <c r="B513" s="9"/>
-    </row>
-    <row r="514">
-      <c r="B514" s="9"/>
-    </row>
-    <row r="515">
-      <c r="B515" s="9"/>
-    </row>
-    <row r="516">
-      <c r="B516" s="9"/>
-    </row>
-    <row r="517">
-      <c r="B517" s="9"/>
-    </row>
-    <row r="518">
-      <c r="B518" s="9"/>
-    </row>
-    <row r="519">
-      <c r="B519" s="9"/>
-    </row>
-    <row r="520">
-      <c r="B520" s="9"/>
-    </row>
-    <row r="521">
-      <c r="B521" s="9"/>
-    </row>
-    <row r="522">
-      <c r="B522" s="9"/>
-    </row>
-    <row r="523">
-      <c r="B523" s="9"/>
-    </row>
-    <row r="524">
-      <c r="B524" s="9"/>
-    </row>
-    <row r="525">
-      <c r="B525" s="9"/>
-    </row>
-    <row r="526">
-      <c r="B526" s="9"/>
-    </row>
-    <row r="527">
-      <c r="B527" s="9"/>
-    </row>
-    <row r="528">
-      <c r="B528" s="9"/>
-    </row>
-    <row r="529">
-      <c r="B529" s="9"/>
-    </row>
-    <row r="530">
-      <c r="B530" s="9"/>
-    </row>
-    <row r="531">
-      <c r="B531" s="9"/>
-    </row>
-    <row r="532">
-      <c r="B532" s="9"/>
-    </row>
-    <row r="533">
-      <c r="B533" s="9"/>
-    </row>
-    <row r="534">
-      <c r="B534" s="9"/>
-    </row>
-    <row r="535">
-      <c r="B535" s="9"/>
-    </row>
-    <row r="536">
-      <c r="B536" s="9"/>
-    </row>
-    <row r="537">
-      <c r="B537" s="9"/>
-    </row>
-    <row r="538">
-      <c r="B538" s="9"/>
-    </row>
-    <row r="539">
-      <c r="B539" s="9"/>
-    </row>
-    <row r="540">
-      <c r="B540" s="9"/>
-    </row>
-    <row r="541">
-      <c r="B541" s="9"/>
-    </row>
-    <row r="542">
-      <c r="B542" s="9"/>
-    </row>
-    <row r="543">
-      <c r="B543" s="9"/>
-    </row>
-    <row r="544">
-      <c r="B544" s="9"/>
-    </row>
-    <row r="545">
-      <c r="B545" s="9"/>
-    </row>
-    <row r="546">
-      <c r="B546" s="9"/>
-    </row>
-    <row r="547">
-      <c r="B547" s="9"/>
-    </row>
-    <row r="548">
-      <c r="B548" s="9"/>
-    </row>
-    <row r="549">
-      <c r="B549" s="9"/>
-    </row>
-    <row r="550">
-      <c r="B550" s="9"/>
-    </row>
-    <row r="551">
-      <c r="B551" s="9"/>
-    </row>
-    <row r="552">
-      <c r="B552" s="9"/>
-    </row>
-    <row r="553">
-      <c r="B553" s="9"/>
-    </row>
-    <row r="554">
-      <c r="B554" s="9"/>
-    </row>
-    <row r="555">
-      <c r="B555" s="9"/>
-    </row>
-    <row r="556">
-      <c r="B556" s="9"/>
-    </row>
-    <row r="557">
-      <c r="B557" s="9"/>
-    </row>
-    <row r="558">
-      <c r="B558" s="9"/>
-    </row>
-    <row r="559">
-      <c r="B559" s="9"/>
-    </row>
-    <row r="560">
-      <c r="B560" s="9"/>
-    </row>
-    <row r="561">
-      <c r="B561" s="9"/>
-    </row>
-    <row r="562">
-      <c r="B562" s="9"/>
-    </row>
-    <row r="563">
-      <c r="B563" s="9"/>
-    </row>
-    <row r="564">
-      <c r="B564" s="9"/>
-    </row>
-    <row r="565">
-      <c r="B565" s="9"/>
-    </row>
-    <row r="566">
-      <c r="B566" s="9"/>
-    </row>
-    <row r="567">
-      <c r="B567" s="9"/>
-    </row>
-    <row r="568">
-      <c r="B568" s="9"/>
-    </row>
-    <row r="569">
-      <c r="B569" s="9"/>
-    </row>
-    <row r="570">
-      <c r="B570" s="9"/>
-    </row>
-    <row r="571">
-      <c r="B571" s="9"/>
-    </row>
-    <row r="572">
-      <c r="B572" s="9"/>
-    </row>
-    <row r="573">
-      <c r="B573" s="9"/>
-    </row>
-    <row r="574">
-      <c r="B574" s="9"/>
-    </row>
-    <row r="575">
-      <c r="B575" s="9"/>
-    </row>
-    <row r="576">
-      <c r="B576" s="9"/>
-    </row>
-    <row r="577">
-      <c r="B577" s="9"/>
-    </row>
-    <row r="578">
-      <c r="B578" s="9"/>
-    </row>
-    <row r="579">
-      <c r="B579" s="9"/>
-    </row>
-    <row r="580">
-      <c r="B580" s="9"/>
-    </row>
-    <row r="581">
-      <c r="B581" s="9"/>
-    </row>
-    <row r="582">
-      <c r="B582" s="9"/>
-    </row>
-    <row r="583">
-      <c r="B583" s="9"/>
-    </row>
-    <row r="584">
-      <c r="B584" s="9"/>
-    </row>
-    <row r="585">
-      <c r="B585" s="9"/>
-    </row>
-    <row r="586">
-      <c r="B586" s="9"/>
-    </row>
-    <row r="587">
-      <c r="B587" s="9"/>
-    </row>
-    <row r="588">
-      <c r="B588" s="9"/>
-    </row>
-    <row r="589">
-      <c r="B589" s="9"/>
-    </row>
-    <row r="590">
-      <c r="B590" s="9"/>
-    </row>
-    <row r="591">
-      <c r="B591" s="9"/>
-    </row>
-    <row r="592">
-      <c r="B592" s="9"/>
-    </row>
-    <row r="593">
-      <c r="B593" s="9"/>
-    </row>
-    <row r="594">
-      <c r="B594" s="9"/>
-    </row>
-    <row r="595">
-      <c r="B595" s="9"/>
-    </row>
-    <row r="596">
-      <c r="B596" s="9"/>
-    </row>
-    <row r="597">
-      <c r="B597" s="9"/>
-    </row>
-    <row r="598">
-      <c r="B598" s="9"/>
-    </row>
-    <row r="599">
-      <c r="B599" s="9"/>
-    </row>
-    <row r="600">
-      <c r="B600" s="9"/>
-    </row>
-    <row r="601">
-      <c r="B601" s="9"/>
-    </row>
-    <row r="602">
-      <c r="B602" s="9"/>
-    </row>
-    <row r="603">
-      <c r="B603" s="9"/>
-    </row>
-    <row r="604">
-      <c r="B604" s="9"/>
-    </row>
-    <row r="605">
-      <c r="B605" s="9"/>
-    </row>
-    <row r="606">
-      <c r="B606" s="9"/>
-    </row>
-    <row r="607">
-      <c r="B607" s="9"/>
-    </row>
-    <row r="608">
-      <c r="B608" s="9"/>
-    </row>
-    <row r="609">
-      <c r="B609" s="9"/>
-    </row>
-    <row r="610">
-      <c r="B610" s="9"/>
-    </row>
-    <row r="611">
-      <c r="B611" s="9"/>
-    </row>
-    <row r="612">
-      <c r="B612" s="9"/>
-    </row>
-    <row r="613">
-      <c r="B613" s="9"/>
-    </row>
-    <row r="614">
-      <c r="B614" s="9"/>
-    </row>
-    <row r="615">
-      <c r="B615" s="9"/>
-    </row>
-    <row r="616">
-      <c r="B616" s="9"/>
-    </row>
-    <row r="617">
-      <c r="B617" s="9"/>
-    </row>
-    <row r="618">
-      <c r="B618" s="9"/>
-    </row>
-    <row r="619">
-      <c r="B619" s="9"/>
-    </row>
-    <row r="620">
-      <c r="B620" s="9"/>
-    </row>
-    <row r="621">
-      <c r="B621" s="9"/>
-    </row>
-    <row r="622">
-      <c r="B622" s="9"/>
-    </row>
-    <row r="623">
-      <c r="B623" s="9"/>
-    </row>
-    <row r="624">
-      <c r="B624" s="9"/>
-    </row>
-    <row r="625">
-      <c r="B625" s="9"/>
-    </row>
-    <row r="626">
-      <c r="B626" s="9"/>
-    </row>
-    <row r="627">
-      <c r="B627" s="9"/>
-    </row>
-    <row r="628">
-      <c r="B628" s="9"/>
-    </row>
-    <row r="629">
-      <c r="B629" s="9"/>
-    </row>
-    <row r="630">
-      <c r="B630" s="9"/>
-    </row>
-    <row r="631">
-      <c r="B631" s="9"/>
-    </row>
-    <row r="632">
-      <c r="B632" s="9"/>
-    </row>
-    <row r="633">
-      <c r="B633" s="9"/>
-    </row>
-    <row r="634">
-      <c r="B634" s="9"/>
-    </row>
-    <row r="635">
-      <c r="B635" s="9"/>
-    </row>
-    <row r="636">
-      <c r="B636" s="9"/>
-    </row>
-    <row r="637">
-      <c r="B637" s="9"/>
-    </row>
-    <row r="638">
-      <c r="B638" s="9"/>
-    </row>
-    <row r="639">
-      <c r="B639" s="9"/>
-    </row>
-    <row r="640">
-      <c r="B640" s="9"/>
-    </row>
-    <row r="641">
-      <c r="B641" s="9"/>
-    </row>
-    <row r="642">
-      <c r="B642" s="9"/>
-    </row>
-    <row r="643">
-      <c r="B643" s="9"/>
-    </row>
-    <row r="644">
-      <c r="B644" s="9"/>
-    </row>
-    <row r="645">
-      <c r="B645" s="9"/>
-    </row>
-    <row r="646">
-      <c r="B646" s="9"/>
-    </row>
-    <row r="647">
-      <c r="B647" s="9"/>
-    </row>
-    <row r="648">
-      <c r="B648" s="9"/>
-    </row>
-    <row r="649">
-      <c r="B649" s="9"/>
-    </row>
-    <row r="650">
-      <c r="B650" s="9"/>
-    </row>
-    <row r="651">
-      <c r="B651" s="9"/>
-    </row>
-    <row r="652">
-      <c r="B652" s="9"/>
-    </row>
-    <row r="653">
-      <c r="B653" s="9"/>
-    </row>
-    <row r="654">
-      <c r="B654" s="9"/>
-    </row>
-    <row r="655">
-      <c r="B655" s="9"/>
-    </row>
-    <row r="656">
-      <c r="B656" s="9"/>
-    </row>
-    <row r="657">
-      <c r="B657" s="9"/>
-    </row>
-    <row r="658">
-      <c r="B658" s="9"/>
-    </row>
-    <row r="659">
-      <c r="B659" s="9"/>
-    </row>
-    <row r="660">
-      <c r="B660" s="9"/>
-    </row>
-    <row r="661">
-      <c r="B661" s="9"/>
-    </row>
-    <row r="662">
-      <c r="B662" s="9"/>
-    </row>
-    <row r="663">
-      <c r="B663" s="9"/>
-    </row>
-    <row r="664">
-      <c r="B664" s="9"/>
-    </row>
-    <row r="665">
-      <c r="B665" s="9"/>
-    </row>
-    <row r="666">
-      <c r="B666" s="9"/>
-    </row>
-    <row r="667">
-      <c r="B667" s="9"/>
-    </row>
-    <row r="668">
-      <c r="B668" s="9"/>
-    </row>
-    <row r="669">
-      <c r="B669" s="9"/>
-    </row>
-    <row r="670">
-      <c r="B670" s="9"/>
-    </row>
-    <row r="671">
-      <c r="B671" s="9"/>
-    </row>
-    <row r="672">
-      <c r="B672" s="9"/>
-    </row>
-    <row r="673">
-      <c r="B673" s="9"/>
-    </row>
-    <row r="674">
-      <c r="B674" s="9"/>
-    </row>
-    <row r="675">
-      <c r="B675" s="9"/>
-    </row>
-    <row r="676">
-      <c r="B676" s="9"/>
-    </row>
-    <row r="677">
-      <c r="B677" s="9"/>
-    </row>
-    <row r="678">
-      <c r="B678" s="9"/>
-    </row>
-    <row r="679">
-      <c r="B679" s="9"/>
-    </row>
-    <row r="680">
-      <c r="B680" s="9"/>
-    </row>
-    <row r="681">
-      <c r="B681" s="9"/>
-    </row>
-    <row r="682">
-      <c r="B682" s="9"/>
-    </row>
-    <row r="683">
-      <c r="B683" s="9"/>
-    </row>
-    <row r="684">
-      <c r="B684" s="9"/>
-    </row>
-    <row r="685">
-      <c r="B685" s="9"/>
-    </row>
-    <row r="686">
-      <c r="B686" s="9"/>
-    </row>
-    <row r="687">
-      <c r="B687" s="9"/>
-    </row>
-    <row r="688">
-      <c r="B688" s="9"/>
-    </row>
-    <row r="689">
-      <c r="B689" s="9"/>
-    </row>
-    <row r="690">
-      <c r="B690" s="9"/>
-    </row>
-    <row r="691">
-      <c r="B691" s="9"/>
-    </row>
-    <row r="692">
-      <c r="B692" s="9"/>
-    </row>
-    <row r="693">
-      <c r="B693" s="9"/>
-    </row>
-    <row r="694">
-      <c r="B694" s="9"/>
-    </row>
-    <row r="695">
-      <c r="B695" s="9"/>
-    </row>
-    <row r="696">
-      <c r="B696" s="9"/>
-    </row>
-    <row r="697">
-      <c r="B697" s="9"/>
-    </row>
-    <row r="698">
-      <c r="B698" s="9"/>
-    </row>
-    <row r="699">
-      <c r="B699" s="9"/>
-    </row>
-    <row r="700">
-      <c r="B700" s="9"/>
-    </row>
-    <row r="701">
-      <c r="B701" s="9"/>
-    </row>
-    <row r="702">
-      <c r="B702" s="9"/>
-    </row>
-    <row r="703">
-      <c r="B703" s="9"/>
-    </row>
-    <row r="704">
-      <c r="B704" s="9"/>
-    </row>
-    <row r="705">
-      <c r="B705" s="9"/>
-    </row>
-    <row r="706">
-      <c r="B706" s="9"/>
-    </row>
-    <row r="707">
-      <c r="B707" s="9"/>
-    </row>
-    <row r="708">
-      <c r="B708" s="9"/>
-    </row>
-    <row r="709">
-      <c r="B709" s="9"/>
-    </row>
-    <row r="710">
-      <c r="B710" s="9"/>
-    </row>
-    <row r="711">
-      <c r="B711" s="9"/>
-    </row>
-    <row r="712">
-      <c r="B712" s="9"/>
-    </row>
-    <row r="713">
-      <c r="B713" s="9"/>
-    </row>
-    <row r="714">
-      <c r="B714" s="9"/>
-    </row>
-    <row r="715">
-      <c r="B715" s="9"/>
-    </row>
-    <row r="716">
-      <c r="B716" s="9"/>
-    </row>
-    <row r="717">
-      <c r="B717" s="9"/>
-    </row>
-    <row r="718">
-      <c r="B718" s="9"/>
-    </row>
-    <row r="719">
-      <c r="B719" s="9"/>
-    </row>
-    <row r="720">
-      <c r="B720" s="9"/>
-    </row>
-    <row r="721">
-      <c r="B721" s="9"/>
-    </row>
-    <row r="722">
-      <c r="B722" s="9"/>
-    </row>
-    <row r="723">
-      <c r="B723" s="9"/>
-    </row>
-    <row r="724">
-      <c r="B724" s="9"/>
-    </row>
-    <row r="725">
-      <c r="B725" s="9"/>
-    </row>
-    <row r="726">
-      <c r="B726" s="9"/>
-    </row>
-    <row r="727">
-      <c r="B727" s="9"/>
-    </row>
-    <row r="728">
-      <c r="B728" s="9"/>
-    </row>
-    <row r="729">
-      <c r="B729" s="9"/>
-    </row>
-    <row r="730">
-      <c r="B730" s="9"/>
-    </row>
-    <row r="731">
-      <c r="B731" s="9"/>
-    </row>
-    <row r="732">
-      <c r="B732" s="9"/>
-    </row>
-    <row r="733">
-      <c r="B733" s="9"/>
-    </row>
-    <row r="734">
-      <c r="B734" s="9"/>
-    </row>
-    <row r="735">
-      <c r="B735" s="9"/>
-    </row>
-    <row r="736">
-      <c r="B736" s="9"/>
-    </row>
-    <row r="737">
-      <c r="B737" s="9"/>
-    </row>
-    <row r="738">
-      <c r="B738" s="9"/>
-    </row>
-    <row r="739">
-      <c r="B739" s="9"/>
-    </row>
-    <row r="740">
-      <c r="B740" s="9"/>
-    </row>
-    <row r="741">
-      <c r="B741" s="9"/>
-    </row>
-    <row r="742">
-      <c r="B742" s="9"/>
-    </row>
-    <row r="743">
-      <c r="B743" s="9"/>
-    </row>
-    <row r="744">
-      <c r="B744" s="9"/>
-    </row>
-    <row r="745">
-      <c r="B745" s="9"/>
-    </row>
-    <row r="746">
-      <c r="B746" s="9"/>
-    </row>
-    <row r="747">
-      <c r="B747" s="9"/>
-    </row>
-    <row r="748">
-      <c r="B748" s="9"/>
-    </row>
-    <row r="749">
-      <c r="B749" s="9"/>
-    </row>
-    <row r="750">
-      <c r="B750" s="9"/>
-    </row>
-    <row r="751">
-      <c r="B751" s="9"/>
-    </row>
-    <row r="752">
-      <c r="B752" s="9"/>
-    </row>
-    <row r="753">
-      <c r="B753" s="9"/>
-    </row>
-    <row r="754">
-      <c r="B754" s="9"/>
-    </row>
-    <row r="755">
-      <c r="B755" s="9"/>
-    </row>
-    <row r="756">
-      <c r="B756" s="9"/>
-    </row>
-    <row r="757">
-      <c r="B757" s="9"/>
-    </row>
-    <row r="758">
-      <c r="B758" s="9"/>
-    </row>
-    <row r="759">
-      <c r="B759" s="9"/>
-    </row>
-    <row r="760">
-      <c r="B760" s="9"/>
-    </row>
-    <row r="761">
-      <c r="B761" s="9"/>
-    </row>
-    <row r="762">
-      <c r="B762" s="9"/>
-    </row>
-    <row r="763">
-      <c r="B763" s="9"/>
-    </row>
-    <row r="764">
-      <c r="B764" s="9"/>
-    </row>
-    <row r="765">
-      <c r="B765" s="9"/>
-    </row>
-    <row r="766">
-      <c r="B766" s="9"/>
-    </row>
-    <row r="767">
-      <c r="B767" s="9"/>
-    </row>
-    <row r="768">
-      <c r="B768" s="9"/>
-    </row>
-    <row r="769">
-      <c r="B769" s="9"/>
-    </row>
-    <row r="770">
-      <c r="B770" s="9"/>
-    </row>
-    <row r="771">
-      <c r="B771" s="9"/>
-    </row>
-    <row r="772">
-      <c r="B772" s="9"/>
-    </row>
-    <row r="773">
-      <c r="B773" s="9"/>
-    </row>
-    <row r="774">
-      <c r="B774" s="9"/>
-    </row>
-    <row r="775">
-      <c r="B775" s="9"/>
-    </row>
-    <row r="776">
-      <c r="B776" s="9"/>
-    </row>
-    <row r="777">
-      <c r="B777" s="9"/>
-    </row>
-    <row r="778">
-      <c r="B778" s="9"/>
-    </row>
-    <row r="779">
-      <c r="B779" s="9"/>
-    </row>
-    <row r="780">
-      <c r="B780" s="9"/>
-    </row>
-    <row r="781">
-      <c r="B781" s="9"/>
-    </row>
-    <row r="782">
-      <c r="B782" s="9"/>
-    </row>
-    <row r="783">
-      <c r="B783" s="9"/>
-    </row>
-    <row r="784">
-      <c r="B784" s="9"/>
-    </row>
-    <row r="785">
-      <c r="B785" s="9"/>
-    </row>
-    <row r="786">
-      <c r="B786" s="9"/>
-    </row>
-    <row r="787">
-      <c r="B787" s="9"/>
-    </row>
-    <row r="788">
-      <c r="B788" s="9"/>
-    </row>
-    <row r="789">
-      <c r="B789" s="9"/>
-    </row>
-    <row r="790">
-      <c r="B790" s="9"/>
-    </row>
-    <row r="791">
-      <c r="B791" s="9"/>
-    </row>
-    <row r="792">
-      <c r="B792" s="9"/>
-    </row>
-    <row r="793">
-      <c r="B793" s="9"/>
-    </row>
-    <row r="794">
-      <c r="B794" s="9"/>
-    </row>
-    <row r="795">
-      <c r="B795" s="9"/>
-    </row>
-    <row r="796">
-      <c r="B796" s="9"/>
-    </row>
-    <row r="797">
-      <c r="B797" s="9"/>
-    </row>
-    <row r="798">
-      <c r="B798" s="9"/>
-    </row>
-    <row r="799">
-      <c r="B799" s="9"/>
-    </row>
-    <row r="800">
-      <c r="B800" s="9"/>
-    </row>
-    <row r="801">
-      <c r="B801" s="9"/>
-    </row>
-    <row r="802">
-      <c r="B802" s="9"/>
-    </row>
-    <row r="803">
-      <c r="B803" s="9"/>
-    </row>
-    <row r="804">
-      <c r="B804" s="9"/>
-    </row>
-    <row r="805">
-      <c r="B805" s="9"/>
-    </row>
-    <row r="806">
-      <c r="B806" s="9"/>
-    </row>
-    <row r="807">
-      <c r="B807" s="9"/>
-    </row>
-    <row r="808">
-      <c r="B808" s="9"/>
-    </row>
-    <row r="809">
-      <c r="B809" s="9"/>
-    </row>
-    <row r="810">
-      <c r="B810" s="9"/>
-    </row>
-    <row r="811">
-      <c r="B811" s="9"/>
-    </row>
-    <row r="812">
-      <c r="B812" s="9"/>
-    </row>
-    <row r="813">
-      <c r="B813" s="9"/>
-    </row>
-    <row r="814">
-      <c r="B814" s="9"/>
-    </row>
-    <row r="815">
-      <c r="B815" s="9"/>
-    </row>
-    <row r="816">
-      <c r="B816" s="9"/>
-    </row>
-    <row r="817">
-      <c r="B817" s="9"/>
-    </row>
-    <row r="818">
-      <c r="B818" s="9"/>
-    </row>
-    <row r="819">
-      <c r="B819" s="9"/>
-    </row>
-    <row r="820">
-      <c r="B820" s="9"/>
-    </row>
-    <row r="821">
-      <c r="B821" s="9"/>
-    </row>
-    <row r="822">
-      <c r="B822" s="9"/>
-    </row>
-    <row r="823">
-      <c r="B823" s="9"/>
-    </row>
-    <row r="824">
-      <c r="B824" s="9"/>
-    </row>
-    <row r="825">
-      <c r="B825" s="9"/>
-    </row>
-    <row r="826">
-      <c r="B826" s="9"/>
-    </row>
-    <row r="827">
-      <c r="B827" s="9"/>
-    </row>
-    <row r="828">
-      <c r="B828" s="9"/>
-    </row>
-    <row r="829">
-      <c r="B829" s="9"/>
-    </row>
-    <row r="830">
-      <c r="B830" s="9"/>
-    </row>
-    <row r="831">
-      <c r="B831" s="9"/>
-    </row>
-    <row r="832">
-      <c r="B832" s="9"/>
-    </row>
-    <row r="833">
-      <c r="B833" s="9"/>
-    </row>
-    <row r="834">
-      <c r="B834" s="9"/>
-    </row>
-    <row r="835">
-      <c r="B835" s="9"/>
-    </row>
-    <row r="836">
-      <c r="B836" s="9"/>
-    </row>
-    <row r="837">
-      <c r="B837" s="9"/>
-    </row>
-    <row r="838">
-      <c r="B838" s="9"/>
-    </row>
-    <row r="839">
-      <c r="B839" s="9"/>
-    </row>
-    <row r="840">
-      <c r="B840" s="9"/>
-    </row>
-    <row r="841">
-      <c r="B841" s="9"/>
-    </row>
-    <row r="842">
-      <c r="B842" s="9"/>
-    </row>
-    <row r="843">
-      <c r="B843" s="9"/>
-    </row>
-    <row r="844">
-      <c r="B844" s="9"/>
-    </row>
-    <row r="845">
-      <c r="B845" s="9"/>
-    </row>
-    <row r="846">
-      <c r="B846" s="9"/>
-    </row>
-    <row r="847">
-      <c r="B847" s="9"/>
-    </row>
-    <row r="848">
-      <c r="B848" s="9"/>
-    </row>
-    <row r="849">
-      <c r="B849" s="9"/>
-    </row>
-    <row r="850">
-      <c r="B850" s="9"/>
-    </row>
-    <row r="851">
-      <c r="B851" s="9"/>
-    </row>
-    <row r="852">
-      <c r="B852" s="9"/>
-    </row>
-    <row r="853">
-      <c r="B853" s="9"/>
-    </row>
-    <row r="854">
-      <c r="B854" s="9"/>
-    </row>
-    <row r="855">
-      <c r="B855" s="9"/>
-    </row>
-    <row r="856">
-      <c r="B856" s="9"/>
-    </row>
-    <row r="857">
-      <c r="B857" s="9"/>
-    </row>
-    <row r="858">
-      <c r="B858" s="9"/>
-    </row>
-    <row r="859">
-      <c r="B859" s="9"/>
-    </row>
-    <row r="860">
-      <c r="B860" s="9"/>
-    </row>
-    <row r="861">
-      <c r="B861" s="9"/>
-    </row>
-    <row r="862">
-      <c r="B862" s="9"/>
-    </row>
-    <row r="863">
-      <c r="B863" s="9"/>
-    </row>
-    <row r="864">
-      <c r="B864" s="9"/>
-    </row>
-    <row r="865">
-      <c r="B865" s="9"/>
-    </row>
-    <row r="866">
-      <c r="B866" s="9"/>
-    </row>
-    <row r="867">
-      <c r="B867" s="9"/>
-    </row>
-    <row r="868">
-      <c r="B868" s="9"/>
-    </row>
-    <row r="869">
-      <c r="B869" s="9"/>
-    </row>
-    <row r="870">
-      <c r="B870" s="9"/>
-    </row>
-    <row r="871">
-      <c r="B871" s="9"/>
-    </row>
-    <row r="872">
-      <c r="B872" s="9"/>
-    </row>
-    <row r="873">
-      <c r="B873" s="9"/>
-    </row>
-    <row r="874">
-      <c r="B874" s="9"/>
-    </row>
-    <row r="875">
-      <c r="B875" s="9"/>
-    </row>
-    <row r="876">
-      <c r="B876" s="9"/>
-    </row>
-    <row r="877">
-      <c r="B877" s="9"/>
-    </row>
-    <row r="878">
-      <c r="B878" s="9"/>
-    </row>
-    <row r="879">
-      <c r="B879" s="9"/>
-    </row>
-    <row r="880">
-      <c r="B880" s="9"/>
-    </row>
-    <row r="881">
-      <c r="B881" s="9"/>
-    </row>
-    <row r="882">
-      <c r="B882" s="9"/>
-    </row>
-    <row r="883">
-      <c r="B883" s="9"/>
-    </row>
-    <row r="884">
-      <c r="B884" s="9"/>
-    </row>
-    <row r="885">
-      <c r="B885" s="9"/>
-    </row>
-    <row r="886">
-      <c r="B886" s="9"/>
-    </row>
-    <row r="887">
-      <c r="B887" s="9"/>
-    </row>
-    <row r="888">
-      <c r="B888" s="9"/>
-    </row>
-    <row r="889">
-      <c r="B889" s="9"/>
-    </row>
-    <row r="890">
-      <c r="B890" s="9"/>
-    </row>
-    <row r="891">
-      <c r="B891" s="9"/>
-    </row>
-    <row r="892">
-      <c r="B892" s="9"/>
-    </row>
-    <row r="893">
-      <c r="B893" s="9"/>
-    </row>
-    <row r="894">
-      <c r="B894" s="9"/>
-    </row>
-    <row r="895">
-      <c r="B895" s="9"/>
-    </row>
-    <row r="896">
-      <c r="B896" s="9"/>
-    </row>
-    <row r="897">
-      <c r="B897" s="9"/>
-    </row>
-    <row r="898">
-      <c r="B898" s="9"/>
-    </row>
-    <row r="899">
-      <c r="B899" s="9"/>
-    </row>
-    <row r="900">
-      <c r="B900" s="9"/>
-    </row>
-    <row r="901">
-      <c r="B901" s="9"/>
-    </row>
-    <row r="902">
-      <c r="B902" s="9"/>
-    </row>
-    <row r="903">
-      <c r="B903" s="9"/>
-    </row>
-    <row r="904">
-      <c r="B904" s="9"/>
-    </row>
-    <row r="905">
-      <c r="B905" s="9"/>
-    </row>
-    <row r="906">
-      <c r="B906" s="9"/>
-    </row>
-    <row r="907">
-      <c r="B907" s="9"/>
-    </row>
-    <row r="908">
-      <c r="B908" s="9"/>
-    </row>
-    <row r="909">
-      <c r="B909" s="9"/>
-    </row>
-    <row r="910">
-      <c r="B910" s="9"/>
-    </row>
-    <row r="911">
-      <c r="B911" s="9"/>
-    </row>
-    <row r="912">
-      <c r="B912" s="9"/>
-    </row>
-    <row r="913">
-      <c r="B913" s="9"/>
-    </row>
-    <row r="914">
-      <c r="B914" s="9"/>
-    </row>
-    <row r="915">
-      <c r="B915" s="9"/>
-    </row>
-    <row r="916">
-      <c r="B916" s="9"/>
-    </row>
-    <row r="917">
-      <c r="B917" s="9"/>
-    </row>
-    <row r="918">
-      <c r="B918" s="9"/>
-    </row>
-    <row r="919">
-      <c r="B919" s="9"/>
-    </row>
-    <row r="920">
-      <c r="B920" s="9"/>
-    </row>
-    <row r="921">
-      <c r="B921" s="9"/>
-    </row>
-    <row r="922">
-      <c r="B922" s="9"/>
-    </row>
-    <row r="923">
-      <c r="B923" s="9"/>
-    </row>
-    <row r="924">
-      <c r="B924" s="9"/>
-    </row>
-    <row r="925">
-      <c r="B925" s="9"/>
-    </row>
-    <row r="926">
-      <c r="B926" s="9"/>
-    </row>
-    <row r="927">
-      <c r="B927" s="9"/>
-    </row>
-    <row r="928">
-      <c r="B928" s="9"/>
-    </row>
-    <row r="929">
-      <c r="B929" s="9"/>
-    </row>
-    <row r="930">
-      <c r="B930" s="9"/>
-    </row>
-    <row r="931">
-      <c r="B931" s="9"/>
-    </row>
-    <row r="932">
-      <c r="B932" s="9"/>
-    </row>
-    <row r="933">
-      <c r="B933" s="9"/>
-    </row>
-    <row r="934">
-      <c r="B934" s="9"/>
-    </row>
-    <row r="935">
-      <c r="B935" s="9"/>
-    </row>
-    <row r="936">
-      <c r="B936" s="9"/>
-    </row>
-    <row r="937">
-      <c r="B937" s="9"/>
-    </row>
-    <row r="938">
-      <c r="B938" s="9"/>
-    </row>
-    <row r="939">
-      <c r="B939" s="9"/>
-    </row>
-    <row r="940">
-      <c r="B940" s="9"/>
-    </row>
-    <row r="941">
-      <c r="B941" s="9"/>
-    </row>
-    <row r="942">
-      <c r="B942" s="9"/>
-    </row>
-    <row r="943">
-      <c r="B943" s="9"/>
-    </row>
-    <row r="944">
-      <c r="B944" s="9"/>
-    </row>
-    <row r="945">
-      <c r="B945" s="9"/>
-    </row>
-    <row r="946">
-      <c r="B946" s="9"/>
-    </row>
-    <row r="947">
-      <c r="B947" s="9"/>
-    </row>
-    <row r="948">
-      <c r="B948" s="9"/>
-    </row>
-    <row r="949">
-      <c r="B949" s="9"/>
-    </row>
-    <row r="950">
-      <c r="B950" s="9"/>
-    </row>
-    <row r="951">
-      <c r="B951" s="9"/>
-    </row>
-    <row r="952">
-      <c r="B952" s="9"/>
-    </row>
-    <row r="953">
-      <c r="B953" s="9"/>
-    </row>
-    <row r="954">
-      <c r="B954" s="9"/>
-    </row>
-    <row r="955">
-      <c r="B955" s="9"/>
-    </row>
-    <row r="956">
-      <c r="B956" s="9"/>
-    </row>
-    <row r="957">
-      <c r="B957" s="9"/>
-    </row>
-    <row r="958">
-      <c r="B958" s="9"/>
-    </row>
-    <row r="959">
-      <c r="B959" s="9"/>
-    </row>
-    <row r="960">
-      <c r="B960" s="9"/>
-    </row>
-    <row r="961">
-      <c r="B961" s="9"/>
-    </row>
-    <row r="962">
-      <c r="B962" s="9"/>
-    </row>
-    <row r="963">
-      <c r="B963" s="9"/>
-    </row>
-    <row r="964">
-      <c r="B964" s="9"/>
-    </row>
-    <row r="965">
-      <c r="B965" s="9"/>
-    </row>
-    <row r="966">
-      <c r="B966" s="9"/>
-    </row>
-    <row r="967">
-      <c r="B967" s="9"/>
-    </row>
-    <row r="968">
-      <c r="B968" s="9"/>
-    </row>
-    <row r="969">
-      <c r="B969" s="9"/>
-    </row>
-    <row r="970">
-      <c r="B970" s="9"/>
-    </row>
-    <row r="971">
-      <c r="B971" s="9"/>
-    </row>
-    <row r="972">
-      <c r="B972" s="9"/>
-    </row>
-    <row r="973">
-      <c r="B973" s="9"/>
-    </row>
-    <row r="974">
-      <c r="B974" s="9"/>
-    </row>
-    <row r="975">
-      <c r="B975" s="9"/>
-    </row>
-    <row r="976">
-      <c r="B976" s="9"/>
-    </row>
-    <row r="977">
-      <c r="B977" s="9"/>
-    </row>
-    <row r="978">
-      <c r="B978" s="9"/>
-    </row>
-    <row r="979">
-      <c r="B979" s="9"/>
-    </row>
-    <row r="980">
-      <c r="B980" s="9"/>
-    </row>
-    <row r="981">
-      <c r="B981" s="9"/>
-    </row>
-    <row r="982">
-      <c r="B982" s="9"/>
-    </row>
-    <row r="983">
-      <c r="B983" s="9"/>
-    </row>
-    <row r="984">
-      <c r="B984" s="9"/>
-    </row>
-    <row r="985">
-      <c r="B985" s="9"/>
-    </row>
-    <row r="986">
-      <c r="B986" s="9"/>
-    </row>
-    <row r="987">
-      <c r="B987" s="9"/>
-    </row>
-    <row r="988">
-      <c r="B988" s="9"/>
-    </row>
-    <row r="989">
-      <c r="B989" s="9"/>
-    </row>
-    <row r="990">
-      <c r="B990" s="9"/>
-    </row>
-    <row r="991">
-      <c r="B991" s="9"/>
-    </row>
-    <row r="992">
-      <c r="B992" s="9"/>
-    </row>
-    <row r="993">
-      <c r="B993" s="9"/>
-    </row>
-    <row r="994">
-      <c r="B994" s="9"/>
-    </row>
-    <row r="995">
-      <c r="B995" s="9"/>
-    </row>
-    <row r="996">
-      <c r="B996" s="9"/>
-    </row>
-    <row r="997">
-      <c r="B997" s="9"/>
-    </row>
-    <row r="998">
-      <c r="B998" s="9"/>
-    </row>
-    <row r="999">
-      <c r="B999" s="9"/>
-    </row>
-    <row r="1000">
-      <c r="B1000" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
-    <hyperlink r:id="rId4" ref="F5"/>
-    <hyperlink r:id="rId5" ref="F6"/>
-    <hyperlink r:id="rId6" ref="F7"/>
-    <hyperlink r:id="rId7" ref="F8"/>
-    <hyperlink r:id="rId8" ref="F9"/>
-    <hyperlink r:id="rId9" ref="F10"/>
-    <hyperlink r:id="rId10" ref="F11"/>
-    <hyperlink r:id="rId11" ref="F12"/>
-    <hyperlink r:id="rId12" ref="F13"/>
-    <hyperlink r:id="rId13" ref="F14"/>
-    <hyperlink r:id="rId14" ref="F15"/>
-    <hyperlink r:id="rId15" ref="F16"/>
-    <hyperlink r:id="rId16" ref="F17"/>
-    <hyperlink r:id="rId17" ref="F18"/>
-    <hyperlink r:id="rId18" ref="F19"/>
-    <hyperlink r:id="rId19" ref="F20"/>
-    <hyperlink r:id="rId20" ref="F21"/>
-    <hyperlink r:id="rId21" ref="F22"/>
-    <hyperlink r:id="rId22" ref="F23"/>
-    <hyperlink r:id="rId23" ref="F24"/>
-    <hyperlink r:id="rId24" ref="F25"/>
-    <hyperlink r:id="rId25" ref="F26"/>
-    <hyperlink r:id="rId26" ref="F27"/>
-    <hyperlink r:id="rId27" ref="F28"/>
-    <hyperlink r:id="rId28" ref="F29"/>
-    <hyperlink r:id="rId29" ref="F30"/>
-    <hyperlink r:id="rId30" ref="F31"/>
-    <hyperlink r:id="rId31" ref="F32"/>
-    <hyperlink r:id="rId32" ref="F33"/>
-    <hyperlink r:id="rId33" ref="F34"/>
-    <hyperlink r:id="rId34" ref="F35"/>
-    <hyperlink r:id="rId35" ref="F36"/>
-    <hyperlink r:id="rId36" ref="F37"/>
-    <hyperlink r:id="rId37" ref="F38"/>
-    <hyperlink r:id="rId38" ref="F39"/>
-    <hyperlink r:id="rId39" ref="F40"/>
-    <hyperlink r:id="rId40" ref="F41"/>
-    <hyperlink r:id="rId41" ref="F42"/>
-    <hyperlink r:id="rId42" ref="F43"/>
-    <hyperlink r:id="rId43" ref="F44"/>
-    <hyperlink r:id="rId44" ref="F45"/>
-    <hyperlink r:id="rId45" ref="F46"/>
-    <hyperlink r:id="rId46" ref="F47"/>
-    <hyperlink r:id="rId47" ref="F48"/>
-    <hyperlink r:id="rId48" ref="F49"/>
-    <hyperlink r:id="rId49" ref="F50"/>
-    <hyperlink r:id="rId50" ref="F51"/>
-    <hyperlink r:id="rId51" ref="F52"/>
-    <hyperlink r:id="rId52" ref="F53"/>
-    <hyperlink r:id="rId53" ref="F54"/>
-    <hyperlink r:id="rId54" ref="F55"/>
-    <hyperlink r:id="rId55" ref="F56"/>
-    <hyperlink r:id="rId56" ref="F57"/>
-    <hyperlink r:id="rId57" ref="F58"/>
-    <hyperlink r:id="rId58" ref="F59"/>
-    <hyperlink r:id="rId59" ref="F60"/>
-    <hyperlink r:id="rId60" ref="F61"/>
-    <hyperlink r:id="rId61" ref="F62"/>
-    <hyperlink r:id="rId62" ref="F63"/>
-    <hyperlink r:id="rId63" ref="F64"/>
-    <hyperlink r:id="rId64" ref="F65"/>
-    <hyperlink r:id="rId65" ref="F66"/>
-    <hyperlink r:id="rId66" ref="F67"/>
-    <hyperlink r:id="rId67" ref="F68"/>
-    <hyperlink r:id="rId68" ref="F69"/>
-    <hyperlink r:id="rId69" ref="F70"/>
-    <hyperlink r:id="rId70" ref="F71"/>
-    <hyperlink r:id="rId71" ref="F72"/>
-    <hyperlink r:id="rId72" ref="F73"/>
-    <hyperlink r:id="rId73" ref="F74"/>
-    <hyperlink r:id="rId74" ref="F75"/>
-    <hyperlink r:id="rId75" ref="F76"/>
-    <hyperlink r:id="rId76" ref="F77"/>
-    <hyperlink r:id="rId77" ref="F78"/>
-    <hyperlink r:id="rId78" ref="F79"/>
-    <hyperlink r:id="rId79" ref="F80"/>
-    <hyperlink r:id="rId80" ref="F81"/>
-    <hyperlink r:id="rId81" ref="F82"/>
-    <hyperlink r:id="rId82" ref="F83"/>
-    <hyperlink r:id="rId83" ref="F84"/>
-    <hyperlink r:id="rId84" ref="F85"/>
-    <hyperlink r:id="rId85" ref="F86"/>
-    <hyperlink r:id="rId86" ref="F87"/>
-    <hyperlink r:id="rId87" ref="F88"/>
-    <hyperlink r:id="rId88" ref="F89"/>
-    <hyperlink r:id="rId89" ref="F90"/>
-    <hyperlink r:id="rId90" ref="F91"/>
-    <hyperlink r:id="rId91" ref="F92"/>
-    <hyperlink r:id="rId92" ref="F93"/>
-    <hyperlink r:id="rId93" ref="F94"/>
-    <hyperlink r:id="rId94" ref="F95"/>
-    <hyperlink r:id="rId95" ref="F96"/>
-    <hyperlink r:id="rId96" ref="F97"/>
-    <hyperlink r:id="rId97" ref="F98"/>
-    <hyperlink r:id="rId98" ref="F99"/>
-    <hyperlink r:id="rId99" ref="F100"/>
-    <hyperlink r:id="rId100" ref="F101"/>
-    <hyperlink r:id="rId101" ref="F102"/>
-    <hyperlink r:id="rId102" ref="F103"/>
-    <hyperlink r:id="rId103" ref="F104"/>
-    <hyperlink r:id="rId104" ref="F105"/>
-    <hyperlink r:id="rId105" ref="F106"/>
-    <hyperlink r:id="rId106" ref="F107"/>
-    <hyperlink r:id="rId107" ref="F108"/>
-    <hyperlink r:id="rId108" ref="F109"/>
-    <hyperlink r:id="rId109" ref="F110"/>
-    <hyperlink r:id="rId110" ref="F111"/>
-    <hyperlink r:id="rId111" ref="F112"/>
-    <hyperlink r:id="rId112" ref="F113"/>
-    <hyperlink r:id="rId113" ref="F114"/>
-    <hyperlink r:id="rId114" ref="F115"/>
-    <hyperlink r:id="rId115" ref="F116"/>
-    <hyperlink r:id="rId116" ref="F117"/>
-    <hyperlink r:id="rId117" ref="F118"/>
-    <hyperlink r:id="rId118" ref="F119"/>
-    <hyperlink r:id="rId119" ref="F120"/>
-    <hyperlink r:id="rId120" ref="F121"/>
-    <hyperlink r:id="rId121" ref="F122"/>
-    <hyperlink r:id="rId122" ref="F123"/>
-    <hyperlink r:id="rId123" ref="F124"/>
-    <hyperlink r:id="rId124" ref="F125"/>
-    <hyperlink r:id="rId125" ref="F126"/>
-    <hyperlink r:id="rId126" ref="F127"/>
-    <hyperlink r:id="rId127" ref="F128"/>
-    <hyperlink r:id="rId128" ref="F129"/>
-    <hyperlink r:id="rId129" ref="F130"/>
-    <hyperlink r:id="rId130" ref="F131"/>
-    <hyperlink r:id="rId131" ref="F132"/>
-    <hyperlink r:id="rId132" ref="F133"/>
-    <hyperlink r:id="rId133" ref="F134"/>
-    <hyperlink r:id="rId134" ref="F135"/>
-    <hyperlink r:id="rId135" ref="F136"/>
-    <hyperlink r:id="rId136" ref="F137"/>
-    <hyperlink r:id="rId137" ref="F138"/>
-    <hyperlink r:id="rId138" ref="F139"/>
-    <hyperlink r:id="rId139" ref="F140"/>
-    <hyperlink r:id="rId140" ref="F141"/>
-    <hyperlink r:id="rId141" ref="F142"/>
-    <hyperlink r:id="rId142" ref="F143"/>
-    <hyperlink r:id="rId143" ref="F144"/>
-    <hyperlink r:id="rId144" ref="F145"/>
-    <hyperlink r:id="rId145" ref="F146"/>
-    <hyperlink r:id="rId146" ref="F147"/>
-    <hyperlink r:id="rId147" ref="F148"/>
-    <hyperlink r:id="rId148" ref="F149"/>
-    <hyperlink r:id="rId149" ref="F150"/>
-    <hyperlink r:id="rId150" ref="F151"/>
-    <hyperlink r:id="rId151" ref="F152"/>
-    <hyperlink r:id="rId152" ref="F153"/>
-    <hyperlink r:id="rId153" ref="F154"/>
-    <hyperlink r:id="rId154" ref="F155"/>
-    <hyperlink r:id="rId155" ref="F156"/>
-    <hyperlink r:id="rId156" ref="F157"/>
-    <hyperlink r:id="rId157" ref="F158"/>
-    <hyperlink r:id="rId158" ref="F159"/>
-    <hyperlink r:id="rId159" ref="F160"/>
-    <hyperlink r:id="rId160" ref="F161"/>
-    <hyperlink r:id="rId161" ref="F162"/>
-    <hyperlink r:id="rId162" ref="F163"/>
-    <hyperlink r:id="rId163" ref="F164"/>
-    <hyperlink r:id="rId164" ref="F165"/>
-    <hyperlink r:id="rId165" ref="F166"/>
-    <hyperlink r:id="rId166" ref="F167"/>
-    <hyperlink r:id="rId167" ref="F168"/>
-    <hyperlink r:id="rId168" ref="F169"/>
-    <hyperlink r:id="rId169" ref="F170"/>
-    <hyperlink r:id="rId170" ref="F171"/>
-    <hyperlink r:id="rId171" ref="F172"/>
-    <hyperlink r:id="rId172" ref="F173"/>
-    <hyperlink r:id="rId173" ref="F174"/>
-    <hyperlink r:id="rId174" ref="F175"/>
-    <hyperlink r:id="rId175" ref="F176"/>
-    <hyperlink r:id="rId176" ref="F177"/>
-    <hyperlink r:id="rId177" ref="F178"/>
-    <hyperlink r:id="rId178" ref="F179"/>
-    <hyperlink r:id="rId179" ref="F180"/>
-    <hyperlink r:id="rId180" ref="F181"/>
-    <hyperlink r:id="rId181" ref="F182"/>
-    <hyperlink r:id="rId182" ref="F183"/>
-    <hyperlink r:id="rId183" ref="F184"/>
-    <hyperlink r:id="rId184" ref="F185"/>
-    <hyperlink r:id="rId185" ref="F186"/>
-    <hyperlink r:id="rId186" ref="F187"/>
-    <hyperlink r:id="rId187" ref="F188"/>
-    <hyperlink r:id="rId188" ref="F189"/>
-    <hyperlink r:id="rId189" ref="F190"/>
-    <hyperlink r:id="rId190" ref="F191"/>
-    <hyperlink r:id="rId191" ref="F192"/>
-    <hyperlink r:id="rId192" ref="F193"/>
-    <hyperlink r:id="rId193" ref="F194"/>
-    <hyperlink r:id="rId194" ref="F195"/>
-    <hyperlink r:id="rId195" ref="F196"/>
-    <hyperlink r:id="rId196" ref="F197"/>
-    <hyperlink r:id="rId197" ref="F198"/>
-    <hyperlink r:id="rId198" ref="F199"/>
-    <hyperlink r:id="rId199" ref="F200"/>
-    <hyperlink r:id="rId200" ref="F201"/>
-    <hyperlink r:id="rId201" ref="F202"/>
-    <hyperlink r:id="rId202" ref="F203"/>
-    <hyperlink r:id="rId203" ref="F204"/>
-    <hyperlink r:id="rId204" ref="F205"/>
-    <hyperlink r:id="rId205" ref="F206"/>
-    <hyperlink r:id="rId206" ref="F207"/>
-    <hyperlink r:id="rId207" ref="F208"/>
-    <hyperlink r:id="rId208" ref="F209"/>
-    <hyperlink r:id="rId209" ref="F210"/>
-    <hyperlink r:id="rId210" ref="F211"/>
-    <hyperlink r:id="rId211" ref="F212"/>
-    <hyperlink r:id="rId212" ref="F213"/>
-    <hyperlink r:id="rId213" ref="F214"/>
-    <hyperlink r:id="rId214" ref="F215"/>
-    <hyperlink r:id="rId215" ref="F216"/>
-    <hyperlink r:id="rId216" ref="F217"/>
-    <hyperlink r:id="rId217" ref="F218"/>
-    <hyperlink r:id="rId218" ref="F219"/>
-    <hyperlink r:id="rId219" ref="F220"/>
-    <hyperlink r:id="rId220" ref="F221"/>
-    <hyperlink r:id="rId221" ref="F222"/>
-    <hyperlink r:id="rId222" ref="F223"/>
-    <hyperlink r:id="rId223" ref="F224"/>
-    <hyperlink r:id="rId224" ref="F225"/>
-    <hyperlink r:id="rId225" ref="F226"/>
-    <hyperlink r:id="rId226" ref="F227"/>
-    <hyperlink r:id="rId227" ref="F228"/>
-    <hyperlink r:id="rId228" ref="F229"/>
-    <hyperlink r:id="rId229" ref="F230"/>
-    <hyperlink r:id="rId230" ref="F231"/>
-    <hyperlink r:id="rId231" ref="F232"/>
-    <hyperlink r:id="rId232" ref="F233"/>
-    <hyperlink r:id="rId233" ref="F234"/>
-    <hyperlink r:id="rId234" ref="F235"/>
-    <hyperlink r:id="rId235" ref="F236"/>
-    <hyperlink r:id="rId236" ref="F237"/>
-    <hyperlink r:id="rId237" ref="F238"/>
-    <hyperlink r:id="rId238" ref="F239"/>
-    <hyperlink r:id="rId239" ref="F240"/>
-    <hyperlink r:id="rId240" ref="F241"/>
-    <hyperlink r:id="rId241" ref="F242"/>
-    <hyperlink r:id="rId242" ref="F243"/>
-    <hyperlink r:id="rId243" ref="F244"/>
-    <hyperlink r:id="rId244" ref="F245"/>
-    <hyperlink r:id="rId245" ref="F246"/>
-    <hyperlink r:id="rId246" ref="F247"/>
-    <hyperlink r:id="rId247" ref="F248"/>
-    <hyperlink r:id="rId248" ref="F249"/>
-    <hyperlink r:id="rId249" ref="F250"/>
-    <hyperlink r:id="rId250" ref="F251"/>
+    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId2" ref="E3"/>
+    <hyperlink r:id="rId3" ref="E4"/>
+    <hyperlink r:id="rId4" ref="E5"/>
+    <hyperlink r:id="rId5" ref="E6"/>
+    <hyperlink r:id="rId6" ref="E7"/>
+    <hyperlink r:id="rId7" ref="E8"/>
+    <hyperlink r:id="rId8" ref="E9"/>
+    <hyperlink r:id="rId9" ref="E10"/>
+    <hyperlink r:id="rId10" ref="E11"/>
+    <hyperlink r:id="rId11" ref="E12"/>
+    <hyperlink r:id="rId12" ref="E13"/>
+    <hyperlink r:id="rId13" ref="E14"/>
+    <hyperlink r:id="rId14" ref="E15"/>
+    <hyperlink r:id="rId15" ref="E16"/>
+    <hyperlink r:id="rId16" ref="E17"/>
+    <hyperlink r:id="rId17" ref="E18"/>
+    <hyperlink r:id="rId18" ref="E19"/>
+    <hyperlink r:id="rId19" ref="E20"/>
+    <hyperlink r:id="rId20" ref="E21"/>
+    <hyperlink r:id="rId21" ref="E22"/>
+    <hyperlink r:id="rId22" ref="E23"/>
+    <hyperlink r:id="rId23" ref="E24"/>
+    <hyperlink r:id="rId24" ref="E25"/>
+    <hyperlink r:id="rId25" ref="E26"/>
+    <hyperlink r:id="rId26" ref="E27"/>
+    <hyperlink r:id="rId27" ref="E28"/>
+    <hyperlink r:id="rId28" ref="E29"/>
+    <hyperlink r:id="rId29" ref="E30"/>
+    <hyperlink r:id="rId30" ref="E31"/>
+    <hyperlink r:id="rId31" ref="E32"/>
+    <hyperlink r:id="rId32" ref="E33"/>
+    <hyperlink r:id="rId33" ref="E34"/>
+    <hyperlink r:id="rId34" ref="E35"/>
+    <hyperlink r:id="rId35" ref="E36"/>
+    <hyperlink r:id="rId36" ref="E37"/>
+    <hyperlink r:id="rId37" ref="E38"/>
+    <hyperlink r:id="rId38" ref="E39"/>
+    <hyperlink r:id="rId39" ref="E40"/>
+    <hyperlink r:id="rId40" ref="E41"/>
+    <hyperlink r:id="rId41" ref="E42"/>
+    <hyperlink r:id="rId42" ref="E43"/>
+    <hyperlink r:id="rId43" ref="E44"/>
+    <hyperlink r:id="rId44" ref="E45"/>
+    <hyperlink r:id="rId45" ref="E46"/>
+    <hyperlink r:id="rId46" ref="E47"/>
+    <hyperlink r:id="rId47" ref="E48"/>
+    <hyperlink r:id="rId48" ref="E49"/>
+    <hyperlink r:id="rId49" ref="E50"/>
+    <hyperlink r:id="rId50" ref="E51"/>
+    <hyperlink r:id="rId51" ref="E52"/>
+    <hyperlink r:id="rId52" ref="E53"/>
+    <hyperlink r:id="rId53" ref="E54"/>
+    <hyperlink r:id="rId54" ref="E55"/>
+    <hyperlink r:id="rId55" ref="E56"/>
+    <hyperlink r:id="rId56" ref="E57"/>
+    <hyperlink r:id="rId57" ref="E58"/>
+    <hyperlink r:id="rId58" ref="E59"/>
+    <hyperlink r:id="rId59" ref="E60"/>
+    <hyperlink r:id="rId60" ref="E61"/>
+    <hyperlink r:id="rId61" ref="E62"/>
+    <hyperlink r:id="rId62" ref="E63"/>
+    <hyperlink r:id="rId63" ref="E64"/>
+    <hyperlink r:id="rId64" ref="E65"/>
+    <hyperlink r:id="rId65" ref="E66"/>
+    <hyperlink r:id="rId66" ref="E67"/>
+    <hyperlink r:id="rId67" ref="E68"/>
+    <hyperlink r:id="rId68" ref="E69"/>
+    <hyperlink r:id="rId69" ref="E70"/>
+    <hyperlink r:id="rId70" ref="E71"/>
+    <hyperlink r:id="rId71" ref="E72"/>
+    <hyperlink r:id="rId72" ref="E73"/>
+    <hyperlink r:id="rId73" ref="E74"/>
+    <hyperlink r:id="rId74" ref="E75"/>
+    <hyperlink r:id="rId75" ref="E76"/>
+    <hyperlink r:id="rId76" ref="E77"/>
+    <hyperlink r:id="rId77" ref="E78"/>
+    <hyperlink r:id="rId78" ref="E79"/>
+    <hyperlink r:id="rId79" ref="E80"/>
+    <hyperlink r:id="rId80" ref="E81"/>
+    <hyperlink r:id="rId81" ref="E82"/>
+    <hyperlink r:id="rId82" ref="E83"/>
+    <hyperlink r:id="rId83" ref="E84"/>
+    <hyperlink r:id="rId84" ref="E85"/>
+    <hyperlink r:id="rId85" ref="E86"/>
+    <hyperlink r:id="rId86" ref="E87"/>
+    <hyperlink r:id="rId87" ref="E88"/>
+    <hyperlink r:id="rId88" ref="E89"/>
+    <hyperlink r:id="rId89" ref="E90"/>
+    <hyperlink r:id="rId90" ref="E91"/>
+    <hyperlink r:id="rId91" ref="E92"/>
+    <hyperlink r:id="rId92" ref="E93"/>
+    <hyperlink r:id="rId93" ref="E94"/>
+    <hyperlink r:id="rId94" ref="E95"/>
+    <hyperlink r:id="rId95" ref="E96"/>
+    <hyperlink r:id="rId96" ref="E97"/>
+    <hyperlink r:id="rId97" ref="E98"/>
+    <hyperlink r:id="rId98" ref="E99"/>
+    <hyperlink r:id="rId99" ref="E100"/>
+    <hyperlink r:id="rId100" ref="E101"/>
+    <hyperlink r:id="rId101" ref="E102"/>
+    <hyperlink r:id="rId102" ref="E103"/>
+    <hyperlink r:id="rId103" ref="E104"/>
+    <hyperlink r:id="rId104" ref="E105"/>
+    <hyperlink r:id="rId105" ref="E106"/>
+    <hyperlink r:id="rId106" ref="E107"/>
+    <hyperlink r:id="rId107" ref="E108"/>
+    <hyperlink r:id="rId108" ref="E109"/>
+    <hyperlink r:id="rId109" ref="E110"/>
+    <hyperlink r:id="rId110" ref="E111"/>
+    <hyperlink r:id="rId111" ref="E112"/>
+    <hyperlink r:id="rId112" ref="E113"/>
+    <hyperlink r:id="rId113" ref="E114"/>
+    <hyperlink r:id="rId114" ref="E115"/>
+    <hyperlink r:id="rId115" ref="E116"/>
+    <hyperlink r:id="rId116" ref="E117"/>
+    <hyperlink r:id="rId117" ref="E118"/>
+    <hyperlink r:id="rId118" ref="E119"/>
+    <hyperlink r:id="rId119" ref="E120"/>
+    <hyperlink r:id="rId120" ref="E121"/>
+    <hyperlink r:id="rId121" ref="E122"/>
+    <hyperlink r:id="rId122" ref="E123"/>
+    <hyperlink r:id="rId123" ref="E124"/>
+    <hyperlink r:id="rId124" ref="E125"/>
+    <hyperlink r:id="rId125" ref="E126"/>
+    <hyperlink r:id="rId126" ref="E127"/>
+    <hyperlink r:id="rId127" ref="E128"/>
+    <hyperlink r:id="rId128" ref="E129"/>
+    <hyperlink r:id="rId129" ref="E130"/>
+    <hyperlink r:id="rId130" ref="E131"/>
+    <hyperlink r:id="rId131" ref="E132"/>
+    <hyperlink r:id="rId132" ref="E133"/>
+    <hyperlink r:id="rId133" ref="E134"/>
+    <hyperlink r:id="rId134" ref="E135"/>
+    <hyperlink r:id="rId135" ref="E136"/>
+    <hyperlink r:id="rId136" ref="E137"/>
+    <hyperlink r:id="rId137" ref="E138"/>
+    <hyperlink r:id="rId138" ref="E139"/>
+    <hyperlink r:id="rId139" ref="E140"/>
+    <hyperlink r:id="rId140" ref="E141"/>
+    <hyperlink r:id="rId141" ref="E142"/>
+    <hyperlink r:id="rId142" ref="E143"/>
+    <hyperlink r:id="rId143" ref="E144"/>
+    <hyperlink r:id="rId144" ref="E145"/>
+    <hyperlink r:id="rId145" ref="E146"/>
+    <hyperlink r:id="rId146" ref="E147"/>
+    <hyperlink r:id="rId147" ref="E148"/>
+    <hyperlink r:id="rId148" ref="E149"/>
+    <hyperlink r:id="rId149" ref="E150"/>
+    <hyperlink r:id="rId150" ref="E151"/>
+    <hyperlink r:id="rId151" ref="E152"/>
+    <hyperlink r:id="rId152" ref="E153"/>
+    <hyperlink r:id="rId153" ref="E154"/>
+    <hyperlink r:id="rId154" ref="E155"/>
+    <hyperlink r:id="rId155" ref="E156"/>
+    <hyperlink r:id="rId156" ref="E157"/>
+    <hyperlink r:id="rId157" ref="E158"/>
+    <hyperlink r:id="rId158" ref="E159"/>
+    <hyperlink r:id="rId159" ref="E160"/>
+    <hyperlink r:id="rId160" ref="E161"/>
+    <hyperlink r:id="rId161" ref="E162"/>
+    <hyperlink r:id="rId162" ref="E163"/>
+    <hyperlink r:id="rId163" ref="E164"/>
+    <hyperlink r:id="rId164" ref="E165"/>
+    <hyperlink r:id="rId165" ref="E166"/>
+    <hyperlink r:id="rId166" ref="E167"/>
+    <hyperlink r:id="rId167" ref="E168"/>
+    <hyperlink r:id="rId168" ref="E169"/>
+    <hyperlink r:id="rId169" ref="E170"/>
+    <hyperlink r:id="rId170" ref="E171"/>
+    <hyperlink r:id="rId171" ref="E172"/>
+    <hyperlink r:id="rId172" ref="E173"/>
+    <hyperlink r:id="rId173" ref="E174"/>
+    <hyperlink r:id="rId174" ref="E175"/>
+    <hyperlink r:id="rId175" ref="E176"/>
+    <hyperlink r:id="rId176" ref="E177"/>
+    <hyperlink r:id="rId177" ref="E178"/>
+    <hyperlink r:id="rId178" ref="E179"/>
+    <hyperlink r:id="rId179" ref="E180"/>
+    <hyperlink r:id="rId180" ref="E181"/>
+    <hyperlink r:id="rId181" ref="E182"/>
+    <hyperlink r:id="rId182" ref="E183"/>
+    <hyperlink r:id="rId183" ref="E184"/>
+    <hyperlink r:id="rId184" ref="E185"/>
+    <hyperlink r:id="rId185" ref="E186"/>
+    <hyperlink r:id="rId186" ref="E187"/>
+    <hyperlink r:id="rId187" ref="E188"/>
+    <hyperlink r:id="rId188" ref="E189"/>
+    <hyperlink r:id="rId189" ref="E190"/>
+    <hyperlink r:id="rId190" ref="E191"/>
+    <hyperlink r:id="rId191" ref="E192"/>
+    <hyperlink r:id="rId192" ref="E193"/>
+    <hyperlink r:id="rId193" ref="E194"/>
+    <hyperlink r:id="rId194" ref="E195"/>
+    <hyperlink r:id="rId195" ref="E196"/>
+    <hyperlink r:id="rId196" ref="E197"/>
+    <hyperlink r:id="rId197" ref="E198"/>
+    <hyperlink r:id="rId198" ref="E199"/>
+    <hyperlink r:id="rId199" ref="E200"/>
+    <hyperlink r:id="rId200" ref="E201"/>
+    <hyperlink r:id="rId201" ref="E202"/>
+    <hyperlink r:id="rId202" ref="E203"/>
+    <hyperlink r:id="rId203" ref="E204"/>
+    <hyperlink r:id="rId204" ref="E205"/>
+    <hyperlink r:id="rId205" ref="E206"/>
+    <hyperlink r:id="rId206" ref="E207"/>
+    <hyperlink r:id="rId207" ref="E208"/>
+    <hyperlink r:id="rId208" ref="E209"/>
+    <hyperlink r:id="rId209" ref="E210"/>
+    <hyperlink r:id="rId210" ref="E211"/>
+    <hyperlink r:id="rId211" ref="E212"/>
+    <hyperlink r:id="rId212" ref="E213"/>
+    <hyperlink r:id="rId213" ref="E214"/>
+    <hyperlink r:id="rId214" ref="E215"/>
+    <hyperlink r:id="rId215" ref="E216"/>
+    <hyperlink r:id="rId216" ref="E217"/>
+    <hyperlink r:id="rId217" ref="E218"/>
+    <hyperlink r:id="rId218" ref="E219"/>
+    <hyperlink r:id="rId219" ref="E220"/>
+    <hyperlink r:id="rId220" ref="E221"/>
+    <hyperlink r:id="rId221" ref="E222"/>
+    <hyperlink r:id="rId222" ref="E223"/>
+    <hyperlink r:id="rId223" ref="E224"/>
+    <hyperlink r:id="rId224" ref="E225"/>
+    <hyperlink r:id="rId225" ref="E226"/>
+    <hyperlink r:id="rId226" ref="E227"/>
+    <hyperlink r:id="rId227" ref="E228"/>
+    <hyperlink r:id="rId228" ref="E229"/>
+    <hyperlink r:id="rId229" ref="E230"/>
+    <hyperlink r:id="rId230" ref="E231"/>
+    <hyperlink r:id="rId231" ref="E232"/>
+    <hyperlink r:id="rId232" ref="E233"/>
+    <hyperlink r:id="rId233" ref="E234"/>
+    <hyperlink r:id="rId234" ref="E235"/>
+    <hyperlink r:id="rId235" ref="E236"/>
+    <hyperlink r:id="rId236" ref="E237"/>
+    <hyperlink r:id="rId237" ref="E238"/>
+    <hyperlink r:id="rId238" ref="E239"/>
+    <hyperlink r:id="rId239" ref="E240"/>
+    <hyperlink r:id="rId240" ref="E241"/>
+    <hyperlink r:id="rId241" ref="E242"/>
+    <hyperlink r:id="rId242" ref="E243"/>
+    <hyperlink r:id="rId243" ref="E244"/>
+    <hyperlink r:id="rId244" ref="E245"/>
+    <hyperlink r:id="rId245" ref="E246"/>
+    <hyperlink r:id="rId246" ref="E247"/>
+    <hyperlink r:id="rId247" ref="E248"/>
+    <hyperlink r:id="rId248" ref="E249"/>
+    <hyperlink r:id="rId249" ref="E250"/>
+    <hyperlink r:id="rId250" ref="E251"/>
   </hyperlinks>
   <drawing r:id="rId251"/>
 </worksheet>
